--- a/OBPIT/Задание 3.xlsx
+++ b/OBPIT/Задание 3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3.1" sheetId="1" state="visible" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>выбывших</t>
   </si>
   <si>
-    <t xml:space="preserve">15220 / 16500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150 / 158</t>
+    <t xml:space="preserve">14120 / 15060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151 / 160</t>
   </si>
   <si>
     <t>сумма</t>
@@ -192,7 +192,7 @@
     <t xml:space="preserve">5. Среднесписочная численность ППП</t>
   </si>
   <si>
-    <t xml:space="preserve">Таким образом, фондоотдача увеличилась на 0,14 руб/руб, фондоемкость уменьшилась на 0,00557 руб/руб, за счет увеличения фондоотдачи объем выпуска продукции в отчетном периоде увеличился на 453,77 тыс. руб. В целом эффективность использования средств выросла.</t>
+    <t xml:space="preserve">Таким образом, фондоотдача увеличилась на 0,1443 руб/руб, фондоемкость уменьшилась на 0,0055 руб/руб, за счет увеличения фондоотдачи объем выпуска продукции в отчетном периоде увеличился на 456,83 тыс. руб. В целом эффективность использования средств выросла.</t>
   </si>
   <si>
     <t xml:space="preserve">6. Фондовооруженность</t>
@@ -428,9 +428,8 @@
   <si>
     <t xml:space="preserve">Таким образом, эффективность использования оборотных
 средств предприятия уменьшилась: коэффициент оборачиваемости
-сократился на 0,00127 оборота, а длительность одного оборота увеличилась
-на 0.2 дня. В результате этого в отчетном периоде необходимо вложить
-оборотных средств на сумму 240.81 тыс. руб.</t>
+увеличился на 0,019 оборота, а длительность одного оборота уменьшилась на 2.583 дня. В результате этого в отчетном периоде необходимо вложить
+оборотных средств на сумму 218.22 тыс. руб.</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 3.19</t>
@@ -623,13 +622,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
       <t xml:space="preserve">Таким образом, производительность труда работников в отчетном периоде выросла  по сравнению с базисным более чем на</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color indexed="2"/>
-        <rFont val="Courier New"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -637,16 +641,16 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Courier New"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>12.8</t>
+      <t>13</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>%.</t>
@@ -684,38 +688,39 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="160" formatCode="0.000000000"/>
+    <numFmt numFmtId="161" formatCode="0.0000"/>
+    <numFmt numFmtId="162" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="14.000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
-      <color theme="1"/>
-      <sz val="14.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
       <name val="Courier New"/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="12.000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,14 +739,8 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1031,8 +1030,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
       </left>
       <right/>
       <top/>
@@ -1041,18 +1071,196 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1074,20 +1282,104 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="121">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1107,6 +1399,9 @@
     <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1150,7 +1445,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1182,83 +1477,269 @@
     <xf fontId="1" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="8" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="10" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="13" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="3" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="3" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="12" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="12" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="13" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="36" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="37" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="19" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="40" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="41" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="3" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="7" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="42" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="12" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="13" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="43" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="44" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="45" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="44" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="46" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="45" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="47" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="48" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="49" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="13" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="43" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="43" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="7" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1767,28 +2248,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="B41" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="C38" zoomScale="90" workbookViewId="0">
       <selection activeCell="G53" activeCellId="0" sqref="G53:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="29.6640625"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="14.54296875"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="11.33203125"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="1" width="14.54296875"/>
-    <col customWidth="1" min="5" max="5" style="1" width="12.44140625"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="13.140625"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="11.88671875"/>
-    <col customWidth="1" min="8" max="8" style="1" width="37"/>
-    <col customWidth="1" min="9" max="9" style="1" width="27.00390625"/>
-    <col customWidth="1" min="10" max="10" style="1" width="11.21875"/>
-    <col bestFit="1" customWidth="1" min="11" max="11" style="1" width="14.54296875"/>
-    <col bestFit="1" customWidth="1" min="12" max="12" style="1" width="13.140625"/>
-    <col min="13" max="16384" style="1" width="9.109375"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="52.25390625"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="30.8828125"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="14.54296875"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="1" width="17.05078125"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="24.6015625"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="14.54296875"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="17.05078125"/>
+    <col bestFit="1" customWidth="1" min="8" max="9" style="1" width="47.22265625"/>
+    <col bestFit="1" customWidth="1" min="10" max="11" style="1" width="14.54296875"/>
+    <col bestFit="1" customWidth="1" min="12" max="12" style="1" width="13.28125"/>
+    <col bestFit="1" min="13" max="13" style="1" width="1.97265625"/>
+    <col min="14" max="16384" style="1" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="2" ht="28.800000000000001" customHeight="1">
+    <row r="2" ht="14.4" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1849,33 +2329,33 @@
       </c>
     </row>
     <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <f>785+5*$M$2</f>
         <v>805</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <f>10+$M$2</f>
         <v>14</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>44621</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <f>25-$M$2</f>
         <v>21</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>44841</v>
       </c>
     </row>
     <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <f>235-2*$M$2</f>
         <v>227</v>
       </c>
@@ -1883,13 +2363,13 @@
         <f>50-$M$2</f>
         <v>46</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="13">
         <v>44591</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1904,10 +2384,10 @@
       </c>
     </row>
     <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <f>310+7*$M$2</f>
         <v>338</v>
       </c>
@@ -1915,14 +2395,14 @@
         <f>45-$M$2</f>
         <v>41</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>44676</v>
       </c>
       <c r="E7" s="4">
         <f>20+$M$2</f>
         <v>24</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="14">
         <v>44891</v>
       </c>
       <c r="H7" s="3"/>
@@ -1935,10 +2415,10 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <f>595+10*$M$2</f>
         <v>635</v>
       </c>
@@ -1946,83 +2426,83 @@
         <f>15+$M$2</f>
         <v>19</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="13">
         <v>44625</v>
       </c>
       <c r="E8" s="4">
         <f>33-$M$2</f>
         <v>29</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="14">
         <v>44596</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="9">
         <v>15220</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="9">
         <v>16500</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="15">
         <f t="shared" ref="K8:K9" si="0">J8/I8</f>
         <v>1.0840998685939554</v>
       </c>
     </row>
-    <row r="9" ht="28.800000000000001" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11"/>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="4">
         <f>70+$M$2</f>
         <v>74</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <v>44784</v>
       </c>
       <c r="E9" s="4">
         <f>10+$M$2</f>
         <v>14</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="14">
         <v>44713</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="17">
         <v>150</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="17">
         <v>158</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="18">
         <f t="shared" si="0"/>
         <v>1.0533333333333332</v>
       </c>
     </row>
     <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4">
         <f>65-$M$2</f>
         <v>61</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <v>44835</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" ht="14.4" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <f>380-$M$2</f>
         <v>376</v>
       </c>
@@ -2030,25 +2510,25 @@
         <f>14+$M$2</f>
         <v>18</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="13">
         <v>44744</v>
       </c>
       <c r="E11" s="4">
         <f>7+$M$2</f>
         <v>11</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="14">
         <v>44623</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="19">
         <v>44926</v>
       </c>
     </row>
     <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <f>195+$M$2</f>
         <v>199</v>
       </c>
@@ -2056,21 +2536,21 @@
         <f>34-$M$2</f>
         <v>30</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <v>44814</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" ht="14.4" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <f>225+4*$M$2</f>
         <v>241</v>
       </c>
@@ -2078,40 +2558,40 @@
         <f>49+$M$2</f>
         <v>53</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="13">
         <v>44660</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" ht="14.4" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <f>170+3*$M$2</f>
         <v>182</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <f>23+$M$2</f>
         <v>27</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="20">
         <v>44718</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="17">
         <f>20-$M$2</f>
         <v>16</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="21">
         <v>44838</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="14.4" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2127,7 +2607,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" ht="28.5">
+    <row r="18" ht="14.4" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2151,44 +2631,44 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="21" t="s">
+    <row r="19" ht="14.4" customHeight="1">
+      <c r="A19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <f>785+5*$M$2</f>
         <v>805</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <f>10+$M$2</f>
         <v>14</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <f>25-$M$2</f>
         <v>21</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="9">
         <f>B19+C19-D19</f>
         <v>798</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="9">
         <f t="shared" ref="F19:F22" si="1">B19/SUM($B$19:$B$28)*100</f>
         <v>26.806526806526808</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="9">
         <f t="shared" ref="G19:G28" si="2">E19/SUM($E$19:$E$28)*100</f>
         <v>24.396209110363802</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="23">
         <f t="shared" ref="H19:H28" si="3">G19-F19</f>
         <v>-2.4103176961630055</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
+    <row r="20" ht="14.4" customHeight="1">
+      <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <f>235-2*$M$2</f>
         <v>227</v>
       </c>
@@ -2211,16 +2691,16 @@
         <f t="shared" si="2"/>
         <v>8.3460715377560373</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="24">
         <f t="shared" si="3"/>
         <v>0.78696397864847878</v>
       </c>
     </row>
-    <row r="21" ht="28.5">
-      <c r="A21" s="2" t="s">
+    <row r="21" ht="14.4" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="12">
         <f>310+7*$M$2</f>
         <v>338</v>
       </c>
@@ -2244,16 +2724,16 @@
         <f t="shared" si="2"/>
         <v>10.852950168144298</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="24">
         <f t="shared" si="3"/>
         <v>-0.40246108726695695</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
+    <row r="22" ht="14.4" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="12">
         <f>595+10*$M$2</f>
         <v>635</v>
       </c>
@@ -2277,14 +2757,14 @@
         <f t="shared" si="2"/>
         <v>19.107306634056865</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="24">
         <f t="shared" si="3"/>
         <v>-2.0382145114642789</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="11"/>
+    <row r="23" ht="14.4" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="4">
         <f>70+$M$2</f>
         <v>74</v>
@@ -2305,14 +2785,14 @@
         <f t="shared" si="2"/>
         <v>1.834301436869459</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="24">
         <f t="shared" si="3"/>
         <v>-19.311219708651684</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="11"/>
+    <row r="24" ht="14.4" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="4">
         <f>65-$M$2</f>
         <v>61</v>
@@ -2332,16 +2812,16 @@
         <f t="shared" si="2"/>
         <v>1.8648731274839501</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="24">
         <f t="shared" si="3"/>
         <v>-19.280648018037194</v>
       </c>
     </row>
-    <row r="25" ht="28.5">
-      <c r="A25" s="2" t="s">
+    <row r="25" ht="14.4" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="12">
         <f>380-$M$2</f>
         <v>376</v>
       </c>
@@ -2365,7 +2845,7 @@
         <f t="shared" si="2"/>
         <v>11.708957505350046</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="24">
         <f t="shared" si="3"/>
         <v>-0.81185501546247529</v>
       </c>
@@ -2373,11 +2853,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" ht="28.5">
-      <c r="A26" s="2" t="s">
+    <row r="26" ht="14.4" customHeight="1">
+      <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="12">
         <f>195+$M$2</f>
         <v>199</v>
       </c>
@@ -2400,16 +2880,16 @@
         <f t="shared" si="2"/>
         <v>7.0009171507184345</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="24">
         <f t="shared" si="3"/>
         <v>0.37421052401180699</v>
       </c>
     </row>
-    <row r="27" ht="28.5">
-      <c r="A27" s="2" t="s">
+    <row r="27" ht="14.4" customHeight="1">
+      <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="12">
         <f>225+4*$M$2</f>
         <v>241</v>
       </c>
@@ -2432,16 +2912,16 @@
         <f t="shared" si="2"/>
         <v>8.9880770406603485</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="24">
         <f t="shared" si="3"/>
         <v>0.96276901535232362</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
+    <row r="28" ht="14.4" customHeight="1">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="12">
         <f>170+3*$M$2</f>
         <v>182</v>
       </c>
@@ -2465,11 +2945,11 @@
         <f t="shared" si="2"/>
         <v>5.9003362885967592</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="24">
         <f t="shared" si="3"/>
         <v>-0.16026977200930137</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="25" t="s">
         <v>37</v>
       </c>
       <c r="J28" s="4">
@@ -2477,36 +2957,36 @@
         <v>0.11708957505350046</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
+    <row r="29" ht="14.4" customHeight="1">
+      <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="16">
         <f>SUM(B19:B28)</f>
         <v>3003</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="17">
         <f>SUM(C19:C28)</f>
         <v>383</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="17">
         <f>SUM(D19:D28)</f>
         <v>115</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="17">
         <f>SUM(E19:E28)</f>
         <v>3271</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="25" t="s">
         <v>39</v>
       </c>
       <c r="J29" s="4">
@@ -2514,7 +2994,9 @@
         <v>3.8295038295038296e-002</v>
       </c>
     </row>
-    <row r="32">
+    <row r="30" ht="14.4" customHeight="1"/>
+    <row r="31" ht="14.4" customHeight="1"/>
+    <row r="32" ht="14.4" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2535,7 +3017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" ht="42.75">
+    <row r="33" ht="14.4" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
@@ -2558,48 +3040,48 @@
       </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34">
-      <c r="A34" s="21" t="s">
+    <row r="34" ht="14.4" customHeight="1">
+      <c r="A34" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="8">
         <f>785+5*$M$2</f>
         <v>805</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <f>10+$M$2</f>
         <v>14</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <f>MONTH($L$11) -MONTH(D5)+1</f>
         <v>10</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="27">
         <f t="shared" ref="E34:E43" si="7">C34*D34/12</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="9">
         <f>25-$M$2</f>
         <v>21</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="9">
         <f>MONTH($L$11)-MONTH(F5)+1</f>
         <v>3</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="27">
         <f>F34*G34/12</f>
         <v>5.25</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="23">
         <f>B34+E34-H34</f>
         <v>811.41666666666663</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
+    <row r="35" ht="14.4" customHeight="1">
+      <c r="A35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="12">
         <f>235-2*$M$2</f>
         <v>227</v>
       </c>
@@ -2611,7 +3093,7 @@
         <f t="shared" ref="D35:D36" si="8">MONTH($L$11) -MONTH(D6)</f>
         <v>11</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="25">
         <f t="shared" si="7"/>
         <v>42.166666666666664</v>
       </c>
@@ -2621,19 +3103,19 @@
       <c r="G35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="24">
         <f>B35+E35</f>
         <v>269.16666666666669</v>
       </c>
     </row>
-    <row r="36" ht="28.5">
-      <c r="A36" s="2" t="s">
+    <row r="36" ht="14.4" customHeight="1">
+      <c r="A36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="12">
         <f>310+7*$M$2</f>
         <v>338</v>
       </c>
@@ -2645,7 +3127,7 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="25">
         <f t="shared" si="7"/>
         <v>27.333333333333332</v>
       </c>
@@ -2657,20 +3139,20 @@
         <f>MONTH($L$11)-MONTH(F7)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="25">
         <f t="shared" ref="H36:H43" si="9">F36*G36/12</f>
         <v>2</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="24">
         <f t="shared" ref="I36:I43" si="10">B36+E36-H36</f>
         <v>363.33333333333331</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
+    <row r="37" ht="14.4" customHeight="1">
+      <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="12">
         <f>595+10*$M$2</f>
         <v>635</v>
       </c>
@@ -2682,7 +3164,7 @@
         <f t="shared" ref="D37:D43" si="11">MONTH($L$11) -MONTH(D8)+1</f>
         <v>10</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="25">
         <f t="shared" si="7"/>
         <v>15.833333333333334</v>
       </c>
@@ -2694,18 +3176,18 @@
         <f t="shared" ref="G37:G38" si="12">MONTH($L$11)-MONTH(F8)+1</f>
         <v>11</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="25">
         <f t="shared" si="9"/>
         <v>26.583333333333332</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="24">
         <f t="shared" si="10"/>
         <v>624.25</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2"/>
-      <c r="B38" s="11"/>
+    <row r="38" ht="14.4" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="4">
         <f>70+$M$2</f>
         <v>74</v>
@@ -2714,7 +3196,7 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="25">
         <f t="shared" si="7"/>
         <v>30.833333333333332</v>
       </c>
@@ -2726,18 +3208,18 @@
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="25">
         <f t="shared" si="9"/>
         <v>8.1666666666666661</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="24">
         <f t="shared" si="10"/>
         <v>22.666666666666664</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2"/>
-      <c r="B39" s="11"/>
+    <row r="39" ht="14.4" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="4">
         <f>65-$M$2</f>
         <v>61</v>
@@ -2746,7 +3228,7 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="25">
         <f t="shared" si="7"/>
         <v>15.25</v>
       </c>
@@ -2756,19 +3238,19 @@
       <c r="G39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="24">
         <f>B39+E39</f>
         <v>15.25</v>
       </c>
     </row>
-    <row r="40" ht="28.5">
-      <c r="A40" s="2" t="s">
+    <row r="40" ht="14.4" customHeight="1">
+      <c r="A40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="12">
         <f>380-$M$2</f>
         <v>376</v>
       </c>
@@ -2780,7 +3262,7 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="25">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
@@ -2792,20 +3274,20 @@
         <f>MONTH($L$11)-MONTH(F11)+1</f>
         <v>10</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="25">
         <f t="shared" si="9"/>
         <v>9.1666666666666661</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="24">
         <f t="shared" si="10"/>
         <v>375.83333333333331</v>
       </c>
     </row>
-    <row r="41" ht="28.5">
-      <c r="A41" s="2" t="s">
+    <row r="41" ht="14.4" customHeight="1">
+      <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="12">
         <f>195+$M$2</f>
         <v>199</v>
       </c>
@@ -2817,7 +3299,7 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="25">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
@@ -2827,19 +3309,19 @@
       <c r="G41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="24">
         <f t="shared" ref="I41:I42" si="13">B41+E41</f>
         <v>209</v>
       </c>
     </row>
-    <row r="42" ht="28.5">
-      <c r="A42" s="2" t="s">
+    <row r="42" ht="14.4" customHeight="1">
+      <c r="A42" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="12">
         <f>225+4*$M$2</f>
         <v>241</v>
       </c>
@@ -2851,7 +3333,7 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="25">
         <f t="shared" si="7"/>
         <v>39.75</v>
       </c>
@@ -2861,19 +3343,19 @@
       <c r="G42" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="24">
         <f t="shared" si="13"/>
         <v>280.75</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
+    <row r="43" ht="14.4" customHeight="1">
+      <c r="A43" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="12">
         <f>170+3*$M$2</f>
         <v>182</v>
       </c>
@@ -2885,7 +3367,7 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="25">
         <f t="shared" si="7"/>
         <v>15.75</v>
       </c>
@@ -2897,51 +3379,53 @@
         <f>MONTH($L$11)-MONTH(F14)+1</f>
         <v>3</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="25">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="24">
         <f t="shared" si="10"/>
         <v>193.75</v>
       </c>
     </row>
-    <row r="44" ht="17.25">
-      <c r="A44" s="2" t="s">
+    <row r="44" ht="14.4" customHeight="1">
+      <c r="A44" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="16">
         <f>SUM(B34:B43)</f>
         <v>3003</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="17">
         <f>SUM(C34:C43)</f>
         <v>383</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="17">
         <f>SUM(E34:E43)</f>
         <v>217.58333333333331</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="29">
         <f>SUM(F34:F43)</f>
         <v>115</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="30">
+      <c r="H44" s="31">
         <f>H34+H36+H37+H38+H40</f>
         <v>51.166666666666657</v>
       </c>
-      <c r="I44" s="25">
+      <c r="I44" s="26">
         <f>SUM(I34:I43)</f>
         <v>3165.4166666666665</v>
       </c>
     </row>
-    <row r="47">
+    <row r="45" ht="14.4" customHeight="1"/>
+    <row r="46" ht="14.4" customHeight="1"/>
+    <row r="47" ht="14.4" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -2956,7 +3440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="14.4" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
@@ -2967,49 +3451,49 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" ht="42.75">
-      <c r="A49" s="2" t="s">
+    <row r="49" ht="14.4" customHeight="1">
+      <c r="A49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="9">
         <f>I8</f>
         <v>15220</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <f>J8</f>
         <v>16500</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" ht="28.5">
-      <c r="A50" s="2" t="s">
+    <row r="50" ht="14.4" customHeight="1">
+      <c r="A50" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C50" s="35">
         <f>B44</f>
         <v>3003</v>
       </c>
-      <c r="D50" s="33">
+      <c r="D50" s="35">
         <f>I44</f>
         <v>3165.4166666666665</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" ht="28.5">
-      <c r="A51" s="2" t="s">
+    <row r="51" ht="14.4" customHeight="1">
+      <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="4">
@@ -3020,7 +3504,7 @@
         <f>D49/D50</f>
         <v>5.2125839147031723</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="36">
         <f t="shared" ref="E51:E54" si="14">D51-C51</f>
         <v>0.14431884643810378</v>
       </c>
@@ -3032,11 +3516,11 @@
         <v>456.829281829281</v>
       </c>
     </row>
-    <row r="52" ht="28.5">
-      <c r="A52" s="2" t="s">
+    <row r="52" ht="14.4" customHeight="1">
+      <c r="A52" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="4">
@@ -3047,16 +3531,16 @@
         <f>D50/D49</f>
         <v>0.19184343434343434</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="36">
         <f t="shared" si="14"/>
         <v>-5.4627417406655221e-003</v>
       </c>
     </row>
-    <row r="53" ht="42.75">
-      <c r="A53" s="2" t="s">
+    <row r="53" ht="14.4" customHeight="1">
+      <c r="A53" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C53" s="4">
@@ -3067,43 +3551,53 @@
         <f>J9</f>
         <v>158</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="H53" s="38"/>
+      <c r="I53" s="39"/>
+    </row>
+    <row r="54" ht="14.4" customHeight="1">
+      <c r="A54" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="28">
         <f>C50/C53</f>
         <v>20.02</v>
       </c>
-      <c r="D54" s="27">
+      <c r="D54" s="28">
         <f>D50/D53</f>
         <v>20.03428270042194</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="40">
         <f t="shared" si="14"/>
         <v>1.4282700421940575e-002</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55">
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-    </row>
+      <c r="G54" s="41"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="42"/>
+    </row>
+    <row r="55" ht="14.4" customHeight="1">
+      <c r="G55" s="41"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="42"/>
+    </row>
+    <row r="56" ht="14.4" customHeight="1">
+      <c r="G56" s="43"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="45"/>
+    </row>
+    <row r="57" ht="14.4" customHeight="1"/>
+    <row r="58" ht="14.4" customHeight="1"/>
+    <row r="59" ht="14.4" customHeight="1"/>
+    <row r="60" ht="14.4" customHeight="1"/>
+    <row r="61" ht="14.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="A2:A4"/>
@@ -3132,11 +3626,11 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="G53:I55"/>
+    <mergeCell ref="G53:I56"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3144,54 +3638,55 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="85" workbookViewId="0">
       <selection activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="34" width="35.77734375"/>
-    <col customWidth="1" min="2" max="2" style="34" width="30.6640625"/>
-    <col customWidth="1" min="3" max="3" style="34" width="17.88671875"/>
-    <col customWidth="1" min="4" max="4" style="34" width="30.33203125"/>
-    <col customWidth="1" min="5" max="5" style="34" width="17.6640625"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" style="34" width="11.88671875"/>
-    <col min="7" max="11" style="34" width="9.109375"/>
-    <col bestFit="1" customWidth="1" min="12" max="12" style="34" width="49.6640625"/>
-    <col bestFit="1" customWidth="1" min="13" max="13" style="34" width="28.109375"/>
-    <col bestFit="1" customWidth="1" min="14" max="14" style="34" width="10.33203125"/>
-    <col bestFit="1" customWidth="1" min="15" max="15" style="34" width="11.88671875"/>
-    <col min="16" max="16384" style="34" width="9.109375"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="46" width="42.203125"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="46" width="22.08203125"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="46" width="33.40234375"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="46" width="35.9140625"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="46" width="25.8515625"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="46" width="4.48046875"/>
+    <col bestFit="1" min="7" max="10" style="46" width="4.48046875"/>
+    <col min="11" max="11" style="46" width="9.109375"/>
+    <col bestFit="1" customWidth="1" min="12" max="12" style="46" width="49.6640625"/>
+    <col bestFit="1" customWidth="1" min="13" max="13" style="46" width="28.109375"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" style="46" width="10.33203125"/>
+    <col bestFit="1" customWidth="1" min="15" max="15" style="46" width="11.88671875"/>
+    <col min="16" max="16384" style="46" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" ht="14.4" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="36" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="47" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="1"/>
@@ -3200,1026 +3695,1031 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" ht="30.600000000000001" customHeight="1">
-      <c r="A3" s="36" t="s">
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="36">
-        <v>145</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36">
+      <c r="B3" s="4">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="4">
         <v>3</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="4">
         <v>4</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="4">
         <v>5</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="40.799999999999997" customHeight="1">
-      <c r="A4" s="36" t="s">
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="4">
+        <v>250</v>
+      </c>
+      <c r="F4" s="4">
+        <v>232</v>
+      </c>
+      <c r="G4" s="4">
+        <v>264</v>
+      </c>
+      <c r="H4" s="4">
+        <v>280</v>
+      </c>
+      <c r="I4" s="4">
+        <v>230</v>
+      </c>
+      <c r="J4" s="4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="52">
+        <f t="shared" ref="B8:B13" si="15">100/$B$4/100</f>
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="C8" s="53">
+        <f>B3*B8</f>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="D8" s="53">
+        <f>B3-C8</f>
+        <v>111.42857142857143</v>
+      </c>
+      <c r="E8" s="54">
+        <f>C8</f>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="52">
+        <f t="shared" si="15"/>
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="C9" s="53">
+        <f>B3*B9</f>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="D9" s="53">
+        <f>D8-C9</f>
+        <v>92.857142857142861</v>
+      </c>
+      <c r="E9" s="54">
+        <f>E8+C9</f>
+        <v>37.142857142857146</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="52">
+        <f t="shared" si="15"/>
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="C10" s="53">
+        <f>B3*B10</f>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="D10" s="53">
+        <f>D9-C10</f>
+        <v>74.285714285714292</v>
+      </c>
+      <c r="E10" s="54">
+        <f>E9+C10</f>
+        <v>55.714285714285722</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" ht="14.4" customHeight="1">
+      <c r="A11" s="12">
+        <v>4</v>
+      </c>
+      <c r="B11" s="52">
+        <f t="shared" si="15"/>
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="C11" s="53">
+        <f>B3*B11</f>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="D11" s="53">
+        <f t="shared" ref="D11:D13" si="16">D10-C11</f>
+        <v>55.714285714285722</v>
+      </c>
+      <c r="E11" s="54">
+        <f t="shared" ref="E11:E13" si="17">E10+C11</f>
+        <v>74.285714285714292</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" ht="14.4" customHeight="1">
+      <c r="A12" s="34">
+        <v>5</v>
+      </c>
+      <c r="B12" s="52">
+        <f t="shared" si="15"/>
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="C12" s="53">
+        <f>B3*B12</f>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="D12" s="53">
+        <f t="shared" si="16"/>
+        <v>37.142857142857153</v>
+      </c>
+      <c r="E12" s="54">
+        <f t="shared" si="17"/>
+        <v>92.857142857142861</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" ht="14.4" customHeight="1">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="36">
-        <v>250</v>
-      </c>
-      <c r="F4" s="36">
-        <v>232</v>
-      </c>
-      <c r="G4" s="36">
-        <v>264</v>
-      </c>
-      <c r="H4" s="36">
-        <v>280</v>
-      </c>
-      <c r="I4" s="36">
-        <v>230</v>
-      </c>
-      <c r="J4" s="36">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-    </row>
-    <row r="7" ht="27.600000000000001" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="B13" s="56">
+        <f t="shared" si="15"/>
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="C13" s="57">
+        <f>B3*B13</f>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="D13" s="57">
+        <f t="shared" si="16"/>
+        <v>18.57142857142858</v>
+      </c>
+      <c r="E13" s="58">
+        <f t="shared" si="17"/>
+        <v>111.42857142857143</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" ht="14.4" customHeight="1">
+      <c r="A14" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" ht="14.4" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E15" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="36">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" ht="14.4" customHeight="1">
+      <c r="A16" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="41">
-        <f t="shared" ref="B8:B13" si="15">100/$B$4/100</f>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="C8" s="42">
-        <f>B3*B8</f>
-        <v>24.166666666666668</v>
-      </c>
-      <c r="D8" s="42">
-        <f>B3-C8</f>
-        <v>120.83333333333333</v>
-      </c>
-      <c r="E8" s="42">
-        <f>C8</f>
-        <v>24.166666666666668</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="36">
-        <v>2</v>
-      </c>
-      <c r="B9" s="41">
-        <f t="shared" si="15"/>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="C9" s="42">
-        <f>B3*B9</f>
-        <v>24.166666666666668</v>
-      </c>
-      <c r="D9" s="42">
-        <f>D8-C9</f>
-        <v>96.666666666666657</v>
-      </c>
-      <c r="E9" s="42">
-        <f>E8+C9</f>
-        <v>48.333333333333336</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="36">
-        <v>3</v>
-      </c>
-      <c r="B10" s="41">
-        <f t="shared" si="15"/>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="C10" s="42">
-        <f>B3*B10</f>
-        <v>24.166666666666668</v>
-      </c>
-      <c r="D10" s="42">
-        <f>D9-C10</f>
-        <v>72.499999999999986</v>
-      </c>
-      <c r="E10" s="42">
-        <f>E9+C10</f>
-        <v>72.5</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="36">
-        <v>4</v>
-      </c>
-      <c r="B11" s="41">
-        <f t="shared" si="15"/>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="C11" s="42">
-        <f>B3*B11</f>
-        <v>24.166666666666668</v>
-      </c>
-      <c r="D11" s="42">
-        <f t="shared" ref="D11:D13" si="16">D10-C11</f>
-        <v>48.333333333333314</v>
-      </c>
-      <c r="E11" s="42">
-        <f t="shared" ref="E11:E13" si="17">E10+C11</f>
-        <v>96.666666666666671</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="43">
-        <v>5</v>
-      </c>
-      <c r="B12" s="41">
-        <f t="shared" si="15"/>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="C12" s="42">
-        <f>B3*B12</f>
-        <v>24.166666666666668</v>
-      </c>
-      <c r="D12" s="42">
-        <f t="shared" si="16"/>
-        <v>24.166666666666647</v>
-      </c>
-      <c r="E12" s="42">
-        <f t="shared" si="17"/>
-        <v>120.83333333333334</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="43">
-        <v>6</v>
-      </c>
-      <c r="B13" s="41">
-        <f t="shared" si="15"/>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="C13" s="42">
-        <f>B3*B13</f>
-        <v>24.166666666666668</v>
-      </c>
-      <c r="D13" s="42">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="42">
-        <f t="shared" si="17"/>
-        <v>145</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" ht="14.4" customHeight="1">
-      <c r="A14" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" ht="28.5">
-      <c r="A15" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="36">
-        <v>1</v>
-      </c>
-      <c r="B16" s="41">
+      <c r="B16" s="52">
         <f>6/(6*(6+1)/2)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="53">
         <f t="shared" ref="C16:C32" si="18">$B$3*B16</f>
-        <v>41.428571428571423</v>
-      </c>
-      <c r="D16" s="42">
+        <v>37.142857142857139</v>
+      </c>
+      <c r="D16" s="53">
         <f>B3-C16</f>
-        <v>103.57142857142858</v>
-      </c>
-      <c r="E16" s="42">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="E16" s="54">
         <f>C16</f>
-        <v>41.428571428571423</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="36">
+        <v>37.142857142857139</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" ht="14.4" customHeight="1">
+      <c r="A17" s="12">
         <v>2</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="52">
         <f>5/(6*(6+1)/2)</f>
         <v>0.23809523809523808</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="53">
         <f t="shared" si="18"/>
-        <v>34.523809523809518</v>
-      </c>
-      <c r="D17" s="42">
+        <v>30.952380952380949</v>
+      </c>
+      <c r="D17" s="53">
         <f t="shared" ref="D17:D21" si="19">D16-C17</f>
-        <v>69.047619047619065</v>
-      </c>
-      <c r="E17" s="42">
+        <v>61.904761904761912</v>
+      </c>
+      <c r="E17" s="54">
         <f t="shared" ref="E17:E21" si="20">E16+C17</f>
-        <v>75.952380952380935</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="36">
+        <v>68.095238095238088</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" ht="14.4" customHeight="1">
+      <c r="A18" s="12">
         <v>3</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="52">
         <f>4/(6*(6+1)/2)</f>
         <v>0.19047619047619047</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="53">
         <f t="shared" si="18"/>
-        <v>27.619047619047617</v>
-      </c>
-      <c r="D18" s="42">
+        <v>24.761904761904759</v>
+      </c>
+      <c r="D18" s="53">
         <f t="shared" si="19"/>
-        <v>41.428571428571445</v>
-      </c>
-      <c r="E18" s="42">
+        <v>37.142857142857153</v>
+      </c>
+      <c r="E18" s="54">
         <f t="shared" si="20"/>
-        <v>103.57142857142856</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="36">
+        <v>92.857142857142847</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" ht="14.4" customHeight="1">
+      <c r="A19" s="12">
         <v>4</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="52">
         <f>3/(6*(6+1)/2)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="53">
         <f t="shared" si="18"/>
-        <v>20.714285714285712</v>
-      </c>
-      <c r="D19" s="42">
+        <v>18.571428571428569</v>
+      </c>
+      <c r="D19" s="53">
         <f t="shared" si="19"/>
-        <v>20.714285714285733</v>
-      </c>
-      <c r="E19" s="42">
+        <v>18.571428571428584</v>
+      </c>
+      <c r="E19" s="54">
         <f t="shared" si="20"/>
-        <v>124.28571428571426</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="43">
+        <v>111.42857142857142</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" ht="14.4" customHeight="1">
+      <c r="A20" s="34">
         <v>5</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="52">
         <f>2/(6*(6+1)/2)</f>
         <v>9.5238095238095233e-002</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="53">
         <f t="shared" si="18"/>
-        <v>13.809523809523808</v>
-      </c>
-      <c r="D20" s="42">
+        <v>12.38095238095238</v>
+      </c>
+      <c r="D20" s="53">
         <f t="shared" si="19"/>
-        <v>6.9047619047619246</v>
-      </c>
-      <c r="E20" s="42">
+        <v>6.190476190476204</v>
+      </c>
+      <c r="E20" s="54">
         <f t="shared" si="20"/>
-        <v>138.09523809523807</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="43">
+        <v>123.8095238095238</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" ht="14.4" customHeight="1">
+      <c r="A21" s="55">
         <v>6</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="56">
         <f>1/(6*(6+1)/2)</f>
         <v>4.7619047619047616e-002</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="57">
         <f t="shared" si="18"/>
-        <v>6.9047619047619042</v>
-      </c>
-      <c r="D21" s="42">
+        <v>6.1904761904761898</v>
+      </c>
+      <c r="D21" s="57">
         <f t="shared" si="19"/>
-        <v>2.042810365310288e-014</v>
-      </c>
-      <c r="E21" s="42">
+        <v>1.4210854715202004e-014</v>
+      </c>
+      <c r="E21" s="58">
         <f t="shared" si="20"/>
-        <v>144.99999999999997</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" ht="14.4" customHeight="1">
+      <c r="A22" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-    </row>
-    <row r="23" ht="28.5">
-      <c r="A23" s="36" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" ht="14.4" customHeight="1">
+      <c r="A23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="36">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" ht="14.4" customHeight="1">
+      <c r="A24" s="12">
         <v>1</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="52">
         <f>(6-6+1)/(6*(6+1)/2)</f>
         <v>4.7619047619047616e-002</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="53">
         <f t="shared" si="18"/>
-        <v>6.9047619047619042</v>
-      </c>
-      <c r="D24" s="42">
+        <v>6.1904761904761898</v>
+      </c>
+      <c r="D24" s="53">
         <f>$B$3-C24</f>
-        <v>138.0952380952381</v>
-      </c>
-      <c r="E24" s="42">
+        <v>123.80952380952381</v>
+      </c>
+      <c r="E24" s="54">
         <f>C24</f>
-        <v>6.9047619047619042</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="36">
+        <v>6.1904761904761898</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" ht="14.4" customHeight="1">
+      <c r="A25" s="12">
         <v>2</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="52">
         <f>(6-5+1)/(6*(6+1)/2)</f>
         <v>9.5238095238095233e-002</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="53">
         <f t="shared" si="18"/>
-        <v>13.809523809523808</v>
-      </c>
-      <c r="D25" s="42">
+        <v>12.38095238095238</v>
+      </c>
+      <c r="D25" s="53">
         <f t="shared" ref="D25:D29" si="21">D24-C25</f>
-        <v>124.28571428571429</v>
-      </c>
-      <c r="E25" s="42">
+        <v>111.42857142857143</v>
+      </c>
+      <c r="E25" s="54">
         <f t="shared" ref="E25:E29" si="22">E24+C25</f>
-        <v>20.714285714285712</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="36">
+        <v>18.571428571428569</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" ht="14.4" customHeight="1">
+      <c r="A26" s="12">
         <v>3</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="52">
         <f>(6-4+1)/(6*(6+1)/2)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="53">
         <f t="shared" si="18"/>
-        <v>20.714285714285712</v>
-      </c>
-      <c r="D26" s="42">
+        <v>18.571428571428569</v>
+      </c>
+      <c r="D26" s="53">
         <f t="shared" si="21"/>
-        <v>103.57142857142858</v>
-      </c>
-      <c r="E26" s="42">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="E26" s="54">
         <f t="shared" si="22"/>
-        <v>41.428571428571423</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="36">
+        <v>37.142857142857139</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" ht="14.4" customHeight="1">
+      <c r="A27" s="12">
         <v>4</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="52">
         <f>(6-3+1)/(6*(6+1)/2)</f>
         <v>0.19047619047619047</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="53">
         <f t="shared" si="18"/>
-        <v>27.619047619047617</v>
-      </c>
-      <c r="D27" s="42">
+        <v>24.761904761904759</v>
+      </c>
+      <c r="D27" s="53">
         <f t="shared" si="21"/>
-        <v>75.952380952380963</v>
-      </c>
-      <c r="E27" s="42">
+        <v>68.095238095238102</v>
+      </c>
+      <c r="E27" s="54">
         <f t="shared" si="22"/>
-        <v>69.047619047619037</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="43">
+        <v>61.904761904761898</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" ht="14.4" customHeight="1">
+      <c r="A28" s="34">
         <v>5</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="52">
         <f>(6-2+1)/(6*(6+1)/2)</f>
         <v>0.23809523809523808</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="53">
         <f t="shared" si="18"/>
-        <v>34.523809523809518</v>
-      </c>
-      <c r="D28" s="42">
+        <v>30.952380952380949</v>
+      </c>
+      <c r="D28" s="53">
         <f t="shared" si="21"/>
-        <v>41.428571428571445</v>
-      </c>
-      <c r="E28" s="42">
+        <v>37.142857142857153</v>
+      </c>
+      <c r="E28" s="54">
         <f t="shared" si="22"/>
-        <v>103.57142857142856</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="43">
+        <v>92.857142857142847</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" ht="14.4" customHeight="1">
+      <c r="A29" s="55">
         <v>6</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="56">
         <f>(6-1+1)/(6*(6+1)/2)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="57">
         <f t="shared" si="18"/>
-        <v>41.428571428571423</v>
-      </c>
-      <c r="D29" s="42">
+        <v>37.142857142857139</v>
+      </c>
+      <c r="D29" s="57">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="42">
+        <v>1.4210854715202004e-014</v>
+      </c>
+      <c r="E29" s="58">
         <f t="shared" si="22"/>
-        <v>144.99999999999997</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" ht="14.4" customHeight="1">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-    </row>
-    <row r="31" ht="28.5">
-      <c r="A31" s="36" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" ht="14.4" customHeight="1">
+      <c r="A31" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="36">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" ht="14.4" customHeight="1">
+      <c r="A32" s="12">
         <v>1</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="52">
         <f t="shared" ref="B32:B37" si="23">(100/6)*2/100</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="53">
         <f t="shared" si="18"/>
-        <v>48.333333333333336</v>
-      </c>
-      <c r="D32" s="42">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="D32" s="53">
         <f>B3-C32</f>
-        <v>96.666666666666657</v>
-      </c>
-      <c r="E32" s="42">
+        <v>86.666666666666657</v>
+      </c>
+      <c r="E32" s="54">
         <f>C32</f>
-        <v>48.333333333333336</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="36">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" ht="14.4" customHeight="1">
+      <c r="A33" s="12">
         <v>2</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="52">
         <f t="shared" si="23"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="53">
         <f>($B$3-C32)*B33</f>
-        <v>32.222222222222221</v>
-      </c>
-      <c r="D33" s="42">
+        <v>28.888888888888889</v>
+      </c>
+      <c r="D33" s="53">
         <f t="shared" ref="D33:D37" si="24">D32-C33</f>
-        <v>64.444444444444429</v>
-      </c>
-      <c r="E33" s="42">
+        <v>57.777777777777771</v>
+      </c>
+      <c r="E33" s="54">
         <f t="shared" ref="E33:E37" si="25">E32+C33</f>
-        <v>80.555555555555557</v>
-      </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="36">
+        <v>72.222222222222229</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" ht="14.4" customHeight="1">
+      <c r="A34" s="12">
         <v>3</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="52">
         <f t="shared" si="23"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="53">
         <f>($B$3-C32-C33)*B34</f>
-        <v>21.481481481481477</v>
-      </c>
-      <c r="D34" s="42">
+        <v>19.25925925925926</v>
+      </c>
+      <c r="D34" s="53">
         <f t="shared" si="24"/>
-        <v>42.962962962962948</v>
-      </c>
-      <c r="E34" s="42">
+        <v>38.518518518518512</v>
+      </c>
+      <c r="E34" s="54">
         <f t="shared" si="25"/>
-        <v>102.03703703703704</v>
-      </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="36">
+        <v>91.481481481481495</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" ht="14.4" customHeight="1">
+      <c r="A35" s="12">
         <v>4</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="52">
         <f t="shared" si="23"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="53">
         <f>($B$3-C32-C33-C34)*B34</f>
-        <v>14.320987654320984</v>
-      </c>
-      <c r="D35" s="42">
+        <v>12.839506172839505</v>
+      </c>
+      <c r="D35" s="53">
         <f t="shared" si="24"/>
-        <v>28.641975308641964</v>
-      </c>
-      <c r="E35" s="42">
+        <v>25.679012345679006</v>
+      </c>
+      <c r="E35" s="54">
         <f t="shared" si="25"/>
-        <v>116.35802469135803</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="43">
+        <v>104.320987654321</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" ht="14.4" customHeight="1">
+      <c r="A36" s="34">
         <v>5</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36" s="52">
         <f t="shared" si="23"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="53">
         <f>($B$3-C32-C33-C34-C35)*B34</f>
-        <v>9.5473251028806558</v>
-      </c>
-      <c r="D36" s="42">
+        <v>8.5596707818930025</v>
+      </c>
+      <c r="D36" s="53">
         <f t="shared" si="24"/>
-        <v>19.094650205761308</v>
-      </c>
-      <c r="E36" s="42">
+        <v>17.119341563786001</v>
+      </c>
+      <c r="E36" s="54">
         <f t="shared" si="25"/>
-        <v>125.90534979423867</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="43">
+        <v>112.88065843621401</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" ht="14.4" customHeight="1">
+      <c r="A37" s="55">
         <v>6</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37" s="56">
         <f t="shared" si="23"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="57">
         <f>($B$3-C32-C33-C34-C35-C36)</f>
-        <v>19.094650205761308</v>
-      </c>
-      <c r="D37" s="42">
+        <v>17.119341563786001</v>
+      </c>
+      <c r="D37" s="57">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="58">
         <f t="shared" si="25"/>
-        <v>144.99999999999997</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" ht="14.4" customHeight="1">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-    </row>
-    <row r="39" ht="28.5">
-      <c r="A39" s="36" t="s">
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" ht="14.4" customHeight="1">
+      <c r="A39" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="36">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" ht="14.4" customHeight="1">
+      <c r="A40" s="12">
         <v>1</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40" s="52">
         <f>E4/SUM($E$4:$J$4)</f>
         <v>0.16329196603527107</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="53">
         <f t="shared" ref="C40:C45" si="26">$B$3*B40</f>
-        <v>23.677335075114307</v>
-      </c>
-      <c r="D40" s="42">
+        <v>21.227955584585239</v>
+      </c>
+      <c r="D40" s="53">
         <f>$B$3-C40</f>
-        <v>121.32266492488569</v>
-      </c>
-      <c r="E40" s="42">
+        <v>108.77204441541477</v>
+      </c>
+      <c r="E40" s="54">
         <f>C40</f>
-        <v>23.677335075114307</v>
-      </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="36">
+        <v>21.227955584585239</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" ht="14.4" customHeight="1">
+      <c r="A41" s="12">
         <v>2</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="52">
         <f>F4/SUM($E$4:$J$4)</f>
         <v>0.15153494448073154</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="53">
         <f t="shared" si="26"/>
-        <v>21.972566949706074</v>
-      </c>
-      <c r="D41" s="42">
+        <v>19.699542782495101</v>
+      </c>
+      <c r="D41" s="53">
         <f>$B$3-C40-C41</f>
-        <v>99.350097975179608</v>
-      </c>
-      <c r="E41" s="42">
+        <v>89.072501632919668</v>
+      </c>
+      <c r="E41" s="54">
         <f t="shared" ref="E41:E45" si="27">E40+C41</f>
-        <v>45.649902024820378</v>
-      </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="36">
+        <v>40.927498367080339</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" ht="14.4" customHeight="1">
+      <c r="A42" s="12">
         <v>3</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42" s="52">
         <f>G4/SUM($E$4:$J$4)</f>
         <v>0.17243631613324625</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="53">
         <f t="shared" si="26"/>
-        <v>25.003265839320708</v>
-      </c>
-      <c r="D42" s="42">
+        <v>22.416721097322014</v>
+      </c>
+      <c r="D42" s="53">
         <f>$B$3-C40-C41-C42</f>
-        <v>74.346832135858904</v>
-      </c>
-      <c r="E42" s="42">
+        <v>66.655780535597657</v>
+      </c>
+      <c r="E42" s="54">
         <f t="shared" si="27"/>
-        <v>70.653167864141082</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="36">
+        <v>63.344219464402357</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" ht="14.4" customHeight="1">
+      <c r="A43" s="60">
         <v>4</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43" s="52">
         <f>H4/SUM($E$4:$J$4)</f>
         <v>0.18288700195950358</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="53">
         <f t="shared" si="26"/>
-        <v>26.518615284128018</v>
-      </c>
-      <c r="D43" s="42">
+        <v>23.775310254735466</v>
+      </c>
+      <c r="D43" s="53">
         <f>$B$3-C40-C41-C42-C43</f>
-        <v>47.828216851730886</v>
-      </c>
-      <c r="E43" s="42">
+        <v>42.880470280862191</v>
+      </c>
+      <c r="E43" s="54">
         <f t="shared" si="27"/>
-        <v>97.1717831482691</v>
-      </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="34">
+        <v>87.11952971913783</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" ht="14.4" customHeight="1">
+      <c r="A44" s="61">
         <v>5</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44" s="62">
         <f>I4/SUM($E$4:$J$4)</f>
         <v>0.15022860875244937</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="53">
         <f t="shared" si="26"/>
-        <v>21.783148269105158</v>
-      </c>
-      <c r="D44" s="42">
+        <v>19.529719137818418</v>
+      </c>
+      <c r="D44" s="53">
         <f>$B$3-C40-C41-C42-C43-C44</f>
-        <v>26.045068582625728</v>
-      </c>
-      <c r="E44" s="42">
+        <v>23.350751143043773</v>
+      </c>
+      <c r="E44" s="54">
         <f t="shared" si="27"/>
-        <v>118.95493141737425</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="34">
+        <v>106.64924885695625</v>
+      </c>
+    </row>
+    <row r="45" ht="14.4" customHeight="1">
+      <c r="A45" s="63">
         <v>6</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45" s="64">
         <f>J4/SUM($E$4:$J$4)</f>
         <v>0.17962116263879818</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="57">
         <f t="shared" si="26"/>
-        <v>26.045068582625735</v>
-      </c>
-      <c r="D45" s="42">
+        <v>23.350751143043762</v>
+      </c>
+      <c r="D45" s="57">
         <f>$B$3-C40-C41-C42-C43-C44-C45</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="42">
+        <v>1.0658141036401503e-014</v>
+      </c>
+      <c r="E45" s="58">
         <f t="shared" si="27"/>
-        <v>145</v>
-      </c>
-    </row>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" ht="14.4" customHeight="1"/>
+    <row r="47" ht="14.4" customHeight="1"/>
+    <row r="48" ht="14.4" customHeight="1"/>
+    <row r="49" ht="14.4" customHeight="1"/>
+    <row r="50" ht="14.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D2:D3"/>
@@ -4232,7 +4732,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4246,10 +4746,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="46" width="54.33203125"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="46" width="31.6640625"/>
-    <col bestFit="1" customWidth="1" min="3" max="4" style="46" width="14.33203125"/>
-    <col min="5" max="16384" style="46" width="9.109375"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="46" width="61.05078125"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="46" width="40.94140625"/>
+    <col bestFit="1" customWidth="1" min="3" max="4" style="46" width="10.7734375"/>
+    <col bestFit="1" min="5" max="5" style="46" width="15.80078125"/>
+    <col min="6" max="16384" style="46" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4261,199 +4762,199 @@
       <c r="D1" s="46"/>
     </row>
     <row r="2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="G2" s="50" t="s">
+      <c r="D2" s="68"/>
+      <c r="G2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="50">
+      <c r="H2" s="69">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="50" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="72" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="75">
         <f>45+$H$2</f>
         <v>49</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="76">
         <f>45+$H$2</f>
         <v>49</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="78">
         <f>7.5+0.2*$H$2</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="79">
         <f>8+0.3*$H$2</f>
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="78">
         <f>200+5*$H$2</f>
         <v>220</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="79">
         <f>210+10*$H$2</f>
         <v>250</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="78">
         <f>81+0.1*$H$2</f>
         <v>81.400000000000006</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="79">
         <f>83+0.2*$H$2</f>
         <v>83.799999999999997</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="78">
         <f>62+0.1*$H$2</f>
         <v>62.399999999999999</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="79">
         <f>64+0.2*$H$2</f>
         <v>64.799999999999997</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="78">
         <f>60-$H$2</f>
         <v>56</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="79">
         <f>54-$H$2</f>
         <v>50</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="78">
         <v>7</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="79">
         <v>7</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="78">
         <v>0.82999999999999996</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="79">
         <v>0.82999999999999996</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="80">
         <f>30+$H$2</f>
         <v>34</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="79">
         <f>30+$H$2</f>
         <v>34</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="78">
         <v>15</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="79">
         <v>15</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="83">
         <f>20+$H$2</f>
         <v>24</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="84">
         <f>20+$H$2</f>
         <v>24</v>
       </c>
@@ -4473,199 +4974,199 @@
       <c r="D16" s="46"/>
     </row>
     <row r="17">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="47"/>
+      <c r="D17" s="85"/>
     </row>
     <row r="18">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="50" t="s">
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="72" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="75">
         <f>C4*C6</f>
         <v>10780</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="76">
         <f>D4*D6</f>
         <v>12250</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="78">
         <f>C19/360</f>
         <v>29.944444444444443</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="79">
         <f>D19/360</f>
         <v>34.027777777777779</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="78">
         <f>C9*C20</f>
         <v>1676.8888888888887</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="79">
         <f>D9*D20</f>
         <v>1701.3888888888889</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="78">
         <f>C20*C10</f>
         <v>209.61111111111109</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="79">
         <f>D20*D10</f>
         <v>238.19444444444446</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="78">
         <f>(C21/2+C22)*C5</f>
         <v>8698.8611111111113</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="79">
         <f>(D21/2+D22)*D5</f>
         <v>10017.777777777777</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="78">
         <f>C6/360</f>
         <v>0.61111111111111116</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="79">
         <f>D6/360</f>
         <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="78">
         <f>C11*C24*C8*C12</f>
         <v>1076.1226666666666</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="79">
         <f>D11*D24*D8*D12</f>
         <v>1269.8999999999999</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="78">
         <f>C13</f>
         <v>15</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="79">
         <f>D13</f>
         <v>15</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="78">
         <f>C6*C7</f>
         <v>17908</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="79">
         <f>D6*D7</f>
         <v>20950</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="78">
         <f>C27/360*C14</f>
         <v>1193.8666666666668</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="79">
         <f>D27/360*D14</f>
         <v>1396.6666666666665</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="83">
         <f>C23+C25+C26+C28</f>
         <v>10983.850444444444</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="84">
         <f>D23+D25+D26+D28</f>
         <v>12699.344444444443</v>
       </c>
@@ -4685,83 +5186,83 @@
       <c r="D31" s="46"/>
     </row>
     <row r="32">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="47"/>
+      <c r="D32" s="85"/>
     </row>
     <row r="33">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="50" t="s">
+      <c r="A33" s="70"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="72" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="75">
         <f>C27/C29</f>
         <v>1.630393648436623</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="76">
         <f>D27/D29</f>
         <v>1.6496914538895711</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="86">
         <f t="shared" ref="E34:E36" si="28">D34-C34</f>
         <v>1.9297805452948014e-002</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="78">
         <f>C29/C27</f>
         <v>0.61334880748517107</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="79">
         <f>D29/D27</f>
         <v>0.60617395916202588</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="86">
         <f t="shared" si="28"/>
         <v>-7.1748483231451887e-003</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="83">
         <f>360/C34</f>
         <v>220.80557069466158</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="84">
         <f>360/D34</f>
         <v>218.22262529832932</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="86">
         <f t="shared" si="28"/>
         <v>-2.5829453963322635</v>
       </c>
@@ -4795,10 +5296,10 @@
       <c r="D39" s="46"/>
     </row>
     <row r="41" ht="76.200000000000003" customHeight="1">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="52"/>
+      <c r="B41" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4815,7 +5316,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4823,374 +5324,374 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="90" workbookViewId="0">
       <selection activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="53" width="58.21875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="53" width="10.109375"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="53" width="12.88671875"/>
-    <col min="4" max="4" style="53" width="9.109375"/>
-    <col customWidth="1" min="5" max="5" style="53" width="65.44140625"/>
-    <col customWidth="1" min="6" max="6" style="53" width="22.5546875"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="53" width="13.88671875"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" style="53" width="12.5546875"/>
-    <col bestFit="1" customWidth="1" min="9" max="9" style="53" width="12.6640625"/>
-    <col min="10" max="16384" style="53" width="9.109375"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="72.37109375"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="10.7734375"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="14.54296875"/>
+    <col min="4" max="4" style="1" width="9.109375"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="95.00390625"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="30.8828125"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="14.54296875"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" style="1" width="10.7734375"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" style="1" width="7.00390625"/>
+    <col min="10" max="16384" style="1" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="91" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="9">
         <f>48+0.1*$C$18</f>
         <v>48.399999999999999</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="9">
         <v>504</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="23" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="4" ht="16.800000000000001" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="95" t="s">
         <v>143</v>
       </c>
       <c r="B4" s="4">
         <f>980-5*$C$18</f>
         <v>960</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="4">
         <v>527</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="24" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" ht="16.199999999999999" customHeight="1">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="95" t="s">
         <v>147</v>
       </c>
       <c r="B5" s="4">
         <f>1.05+0.01*$C$18</f>
         <v>1.0900000000000001</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="4">
         <v>45</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="95" t="s">
         <v>151</v>
       </c>
       <c r="B6" s="4">
         <f>230+$C$18</f>
         <v>234</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="17">
         <v>119</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="26" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="95" t="s">
         <v>155</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="96" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="95" t="s">
         <v>157</v>
       </c>
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" ht="16.800000000000001" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="95" t="s">
         <v>160</v>
       </c>
       <c r="B9" s="4">
         <f>440+5*$C$18</f>
         <v>460</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="91" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10" ht="17.399999999999999" customHeight="1">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="95" t="s">
         <v>163</v>
       </c>
       <c r="B10" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="94" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="99">
         <f>B4*B6</f>
         <v>224640</v>
       </c>
     </row>
     <row r="11" ht="17.399999999999999" customHeight="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="95" t="s">
         <v>167</v>
       </c>
       <c r="B11" s="4">
         <f>105+$C$18</f>
         <v>109</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="100">
         <f>B3*1000000/(G10*B5)</f>
         <v>197.66590867508299</v>
       </c>
     </row>
     <row r="12" ht="16.800000000000001" customHeight="1">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="95" t="s">
         <v>171</v>
       </c>
       <c r="B12" s="4">
         <f>32-$C$18</f>
         <v>28</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="100">
         <f>G10/360</f>
         <v>624</v>
       </c>
     </row>
     <row r="13" ht="16.800000000000001" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="95" t="s">
         <v>174</v>
       </c>
       <c r="B13" s="4">
         <f>21-$C$18</f>
         <v>17</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="100">
         <f>(B9/B8)*B7</f>
         <v>153.33333333333334</v>
       </c>
     </row>
     <row r="14" ht="16.800000000000001" customHeight="1">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="95" t="s">
         <v>178</v>
       </c>
       <c r="B14" s="4">
         <f>28+$C$18</f>
         <v>32</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="100">
         <f>G13*B10</f>
         <v>168.66666666666669</v>
       </c>
     </row>
     <row r="15" ht="16.199999999999999" customHeight="1">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="95" t="s">
         <v>182</v>
       </c>
       <c r="B15" s="4">
         <f>124+5*$C$18</f>
         <v>144</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="100">
         <f>G14+G11+B11</f>
         <v>475.3325753417497</v>
       </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="17">
         <f>1.1+0.1*$C$18</f>
         <v>1.5</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="102" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="103">
         <f>G15+B12</f>
         <v>503.3325753417497</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="19">
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="91" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20">
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="104">
         <f>B13/G16</f>
         <v>3.377488530015655e-002</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="4" t="s">
         <v>193</v>
       </c>
       <c r="G21" s="54">
@@ -5199,10 +5700,10 @@
       </c>
     </row>
     <row r="22" ht="16.199999999999999" customHeight="1">
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="4" t="s">
         <v>195</v>
       </c>
       <c r="G22" s="54">
@@ -5211,98 +5712,103 @@
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="1">
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="G23" s="54">
+      <c r="G23" s="58">
         <f>(B14-B13)/G16</f>
         <v>2.9801369382491071e-002</v>
       </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="I23" s="54">
+      <c r="I23" s="53">
         <f>F4*B3/F5-G16</f>
         <v>63.485202436028089</v>
       </c>
     </row>
     <row r="25">
-      <c r="E25" s="53" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="E25" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="59"/>
-      <c r="E26" s="4" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="E26" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="H26" s="54"/>
-    </row>
-    <row r="27">
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54" t="s">
+      <c r="H26" s="107"/>
+    </row>
+    <row r="27" ht="28.5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="54" t="s">
+      <c r="H27" s="110" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="E28" s="4" t="s">
+      <c r="B28" s="112"/>
+      <c r="C28" s="113"/>
+      <c r="E28" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="G28" s="54">
+      <c r="G28" s="114">
         <f>F5*1000/F4</f>
         <v>85.388994307400381</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="104">
         <f>B3*1000/G16</f>
         <v>96.159085207504518</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="36" t="s">
+      <c r="A29" s="115"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="117"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G29" s="54">
+      <c r="G29" s="53">
         <f>H28/G28</f>
         <v>1.1261297312078862</v>
       </c>
       <c r="H29" s="54"/>
     </row>
     <row r="30">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="E30" s="4" t="s">
+      <c r="A30" s="118"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="120"/>
+      <c r="E30" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G30" s="54">
+      <c r="G30" s="53">
         <f>F5*B15/G16</f>
         <v>12.874191573236143</v>
       </c>
@@ -5312,24 +5818,24 @@
       </c>
     </row>
     <row r="31">
-      <c r="E31" s="4"/>
-      <c r="F31" s="36" t="s">
+      <c r="E31" s="97"/>
+      <c r="F31" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G31" s="54">
+      <c r="G31" s="53">
         <f>H30/G30</f>
         <v>1.0755555555555554</v>
       </c>
       <c r="H31" s="54"/>
     </row>
     <row r="32">
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G32" s="54">
+      <c r="G32" s="53">
         <f>F5*60*B16/G16</f>
         <v>8.0463697332725896</v>
       </c>
@@ -5339,15 +5845,15 @@
       </c>
     </row>
     <row r="33">
-      <c r="E33" s="4"/>
-      <c r="F33" s="36" t="s">
+      <c r="E33" s="98"/>
+      <c r="F33" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="G33" s="54">
+      <c r="G33" s="57">
         <f>H32/G32</f>
         <v>1.0755555555555554</v>
       </c>
-      <c r="H33" s="54"/>
+      <c r="H33" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5364,7 +5870,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/OBPIT/Задание 3.xlsx
+++ b/OBPIT/Задание 3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3.1" sheetId="1" state="visible" r:id="rId1"/>
@@ -427,7 +427,7 @@
   </si>
   <si>
     <t xml:space="preserve">Таким образом, эффективность использования оборотных
-средств предприятия уменьшилась: коэффициент оборачиваемости
+средств предприятия увеличилась: коэффициент оборачиваемости
 увеличился на 0,019 оборота, а длительность одного оборота уменьшилась на 2.583 дня. В результате этого в отчетном периоде необходимо вложить
 оборотных средств на сумму 218.22 тыс. руб.</t>
   </si>
@@ -693,7 +693,7 @@
     <numFmt numFmtId="161" formatCode="0.0000"/>
     <numFmt numFmtId="162" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -701,6 +701,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Courier New"/>
@@ -729,18 +735,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor theme="5" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="50">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -749,30 +755,229 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,12 +1000,43 @@
       <left style="medium">
         <color theme="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,11 +1044,44 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color theme="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
         <color theme="1"/>
       </bottom>
       <diagonal/>
@@ -890,9 +1159,20 @@
       <left style="medium">
         <color theme="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -932,243 +1212,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -1182,29 +1225,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
         <color theme="1"/>
@@ -1264,6 +1290,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1339,6 +1380,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color theme="1"/>
@@ -1384,91 +1436,100 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="7" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="8" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="10" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="8" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="13" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="12" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="13" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="10" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="16" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="10" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="1" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1477,268 +1538,259 @@
     <xf fontId="1" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="8" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="1" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="1" fillId="0" borderId="10" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="13" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="12" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="12" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="13" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="18" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="18" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="31" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="34" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="34" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="35" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="36" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="15" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="37" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="19" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="40" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="41" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="7" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="17" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="37" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="40" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="41" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="42" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="28" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="29" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="18" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="31" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="42" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="43" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="42" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="12" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="34" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="13" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="35" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="43" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="44" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="44" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="45" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="44" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="46" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="45" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="45" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="46" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="45" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="47" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="46" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="48" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="47" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="49" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="48" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="50" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="42" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="29" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="31" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="49" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="13" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="51" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="35" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="43" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="43" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="7" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="29" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="44" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="42" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="44" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="28" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="42" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2248,7 +2300,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="C38" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="C28" zoomScale="90" workbookViewId="0">
       <selection activeCell="G53" activeCellId="0" sqref="G53:I55"/>
     </sheetView>
   </sheetViews>
@@ -2278,318 +2330,386 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="13" t="s">
         <v>9</v>
       </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="1">
         <f>785+5*$M$2</f>
         <v>805</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="1">
         <f>10+$M$2</f>
         <v>14</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="18">
         <v>44621</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="1">
         <f>25-$M$2</f>
         <v>21</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="19">
         <v>44841</v>
       </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="1">
         <f>235-2*$M$2</f>
         <v>227</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <f>50-$M$2</f>
         <v>46</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="18">
         <v>44591</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="1">
         <f>310+7*$M$2</f>
         <v>338</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <f>45-$M$2</f>
         <v>41</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="18">
         <v>44676</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <f>20+$M$2</f>
         <v>24</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="19">
         <v>44891</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="1">
         <f>595+10*$M$2</f>
         <v>635</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <f>15+$M$2</f>
         <v>19</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="18">
         <v>44625</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <f>33-$M$2</f>
         <v>29</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="19">
         <v>44596</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="1">
         <v>15220</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="1">
         <v>16500</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="21">
         <f t="shared" ref="K8:K9" si="0">J8/I8</f>
         <v>1.0840998685939554</v>
       </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <f>70+$M$2</f>
         <v>74</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="18">
         <v>44784</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <f>10+$M$2</f>
         <v>14</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="19">
         <v>44713</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="22">
         <v>150</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="22">
         <v>158</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="23">
         <f t="shared" si="0"/>
         <v>1.0533333333333332</v>
       </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
         <f>65-$M$2</f>
         <v>61</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="18">
         <v>44835</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="19" t="s">
         <v>14</v>
       </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" ht="14.4" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="1">
         <f>380-$M$2</f>
         <v>376</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <f>14+$M$2</f>
         <v>18</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="18">
         <v>44744</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <f>7+$M$2</f>
         <v>11</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="19">
         <v>44623</v>
       </c>
-      <c r="L11" s="19">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="24">
         <v>44926</v>
       </c>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="1">
         <f>195+$M$2</f>
         <v>199</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <f>34-$M$2</f>
         <v>30</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="18">
         <v>44814</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="19" t="s">
         <v>14</v>
       </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" ht="14.4" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="1">
         <f>225+4*$M$2</f>
         <v>241</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <f>49+$M$2</f>
         <v>53</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="18">
         <v>44660</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="19" t="s">
         <v>14</v>
       </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" ht="14.4" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="22">
         <f>170+3*$M$2</f>
         <v>182</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="22">
         <f>23+$M$2</f>
         <v>27</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="26">
         <v>44718</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="22">
         <f>20-$M$2</f>
         <v>16</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="27">
         <v>44838</v>
       </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="17" ht="14.4" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -2605,247 +2725,223 @@
         <v>29</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" ht="14.4" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="1">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="1">
         <f>785+5*$M$2</f>
         <v>805</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="1">
         <f>10+$M$2</f>
         <v>14</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="1">
         <f>25-$M$2</f>
         <v>21</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="1">
         <f>B19+C19-D19</f>
         <v>798</v>
       </c>
-      <c r="F19" s="9">
-        <f t="shared" ref="F19:F22" si="1">B19/SUM($B$19:$B$28)*100</f>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19:F21" si="1">B19/SUM($B$19:$B$28)*100</f>
         <v>26.806526806526808</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="1">
         <f t="shared" ref="G19:G28" si="2">E19/SUM($E$19:$E$28)*100</f>
         <v>24.396209110363802</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="28">
         <f t="shared" ref="H19:H28" si="3">G19-F19</f>
         <v>-2.4103176961630055</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="1">
         <f>235-2*$M$2</f>
         <v>227</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <f>50-$M$2</f>
         <v>46</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <f>B20+C20</f>
         <v>273</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <f t="shared" si="1"/>
         <v>7.5591075591075585</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <f t="shared" si="2"/>
         <v>8.3460715377560373</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="28">
         <f t="shared" si="3"/>
         <v>0.78696397864847878</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="1">
         <f>310+7*$M$2</f>
         <v>338</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <f>45-$M$2</f>
         <v>41</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <f>20+$M$2</f>
         <v>24</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="1">
         <f t="shared" ref="E21:E28" si="4">B21+C21-D21</f>
         <v>355</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <f t="shared" si="1"/>
         <v>11.255411255411255</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <f t="shared" si="2"/>
         <v>10.852950168144298</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="28">
         <f t="shared" si="3"/>
         <v>-0.40246108726695695</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="1">
         <f>595+10*$M$2</f>
         <v>635</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <f>15+$M$2</f>
         <v>19</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
         <f>33-$M$2</f>
         <v>29</v>
       </c>
-      <c r="E22" s="4">
-        <f t="shared" si="4"/>
-        <v>625</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="1"/>
+      <c r="E22" s="5">
+        <f>B22+SUM(C22:C24)-SUM(D22:D24)</f>
+        <v>746</v>
+      </c>
+      <c r="F22" s="5">
+        <f>B22/SUM($B$19:$B$28)*100</f>
         <v>21.145521145521144</v>
       </c>
-      <c r="G22" s="4">
-        <f t="shared" si="2"/>
-        <v>19.107306634056865</v>
-      </c>
-      <c r="H22" s="24">
-        <f t="shared" si="3"/>
-        <v>-2.0382145114642789</v>
+      <c r="G22" s="5">
+        <f>E22/SUM($E$19:$E$28)*100</f>
+        <v>22.806481198410271</v>
+      </c>
+      <c r="H22" s="28">
+        <f>G22-F22</f>
+        <v>1.6609600528891271</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="4">
+      <c r="A23" s="17"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
         <f>70+$M$2</f>
         <v>74</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <f>10+$M$2</f>
         <v>14</v>
       </c>
-      <c r="E23" s="4">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="F23" s="4">
-        <f>B22/SUM($B$19:$B$28)*100</f>
-        <v>21.145521145521144</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="2"/>
-        <v>1.834301436869459</v>
-      </c>
-      <c r="H23" s="24">
-        <f t="shared" si="3"/>
-        <v>-19.311219708651684</v>
-      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" ht="14.4" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="4">
+      <c r="A24" s="17"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
         <f>65-$M$2</f>
         <v>61</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="4">
-        <f>B24+C24</f>
-        <v>61</v>
-      </c>
-      <c r="F24" s="4">
-        <f>B22/SUM($B$19:$B$28)*100</f>
-        <v>21.145521145521144</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="2"/>
-        <v>1.8648731274839501</v>
-      </c>
-      <c r="H24" s="24">
-        <f t="shared" si="3"/>
-        <v>-19.280648018037194</v>
-      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" ht="14.4" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="1">
         <f>380-$M$2</f>
         <v>376</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="1">
         <f>14+$M$2</f>
         <v>18</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="1">
         <f>7+$M$2</f>
         <v>11</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="1">
         <f t="shared" si="4"/>
         <v>383</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="1">
         <f t="shared" ref="F25:F28" si="5">B25/SUM($B$19:$B$28)*100</f>
         <v>12.520812520812521</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <f t="shared" si="2"/>
         <v>11.708957505350046</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="28">
         <f t="shared" si="3"/>
         <v>-0.81185501546247529</v>
       </c>
@@ -2854,142 +2950,142 @@
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="1">
         <f>195+$M$2</f>
         <v>199</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <f>34-$M$2</f>
         <v>30</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="1">
         <f t="shared" ref="E26:E27" si="6">B26+C26</f>
         <v>229</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="1">
         <f t="shared" si="5"/>
         <v>6.6267066267066275</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <f t="shared" si="2"/>
         <v>7.0009171507184345</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="28">
         <f t="shared" si="3"/>
         <v>0.37421052401180699</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="1">
         <f>225+4*$M$2</f>
         <v>241</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="1">
         <f>49+$M$2</f>
         <v>53</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="1">
         <f t="shared" si="6"/>
         <v>294</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="1">
         <f t="shared" si="5"/>
         <v>8.0253080253080249</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="1">
         <f t="shared" si="2"/>
         <v>8.9880770406603485</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="28">
         <f t="shared" si="3"/>
         <v>0.96276901535232362</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="1">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="1">
         <f>170+3*$M$2</f>
         <v>182</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="1">
         <f>23+$M$2</f>
         <v>27</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="1">
         <f>20-$M$2</f>
         <v>16</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="1">
         <f t="shared" si="4"/>
         <v>193</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="1">
         <f t="shared" si="5"/>
         <v>6.0606060606060606</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
         <f t="shared" si="2"/>
         <v>5.9003362885967592</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="28">
         <f t="shared" si="3"/>
         <v>-0.16026977200930137</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="30">
         <f>C29/E29</f>
         <v>0.11708957505350046</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="1">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="22">
         <f>SUM(B19:B28)</f>
         <v>3003</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="22">
         <f>SUM(C19:C28)</f>
         <v>383</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="22">
         <f>SUM(D19:D28)</f>
         <v>115</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="22">
         <f>SUM(E19:E28)</f>
         <v>3271</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="30">
         <f>D29/B29</f>
         <v>3.8295038295038296e-002</v>
       </c>
@@ -3013,412 +3109,406 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="3"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" ht="14.4" customHeight="1">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="1">
         <f>785+5*$M$2</f>
         <v>805</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="1">
         <f>10+$M$2</f>
         <v>14</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="1">
         <f>MONTH($L$11) -MONTH(D5)+1</f>
         <v>10</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="1">
         <f t="shared" ref="E34:E43" si="7">C34*D34/12</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="1">
         <f>25-$M$2</f>
         <v>21</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="1">
         <f>MONTH($L$11)-MONTH(F5)+1</f>
         <v>3</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="1">
         <f>F34*G34/12</f>
         <v>5.25</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="28">
         <f>B34+E34-H34</f>
         <v>811.41666666666663</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="1">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="1">
         <f>235-2*$M$2</f>
         <v>227</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="1">
         <f>50-$M$2</f>
         <v>46</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="1">
         <f t="shared" ref="D35:D36" si="8">MONTH($L$11) -MONTH(D6)</f>
         <v>11</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="1">
         <f t="shared" si="7"/>
         <v>42.166666666666664</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="28">
         <f>B35+E35</f>
         <v>269.16666666666669</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="1">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="1">
         <f>310+7*$M$2</f>
         <v>338</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="1">
         <f>45-$M$2</f>
         <v>41</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="1">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="1">
         <f t="shared" si="7"/>
         <v>27.333333333333332</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="1">
         <f>20+$M$2</f>
         <v>24</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="1">
         <f>MONTH($L$11)-MONTH(F7)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="1">
         <f t="shared" ref="H36:H43" si="9">F36*G36/12</f>
         <v>2</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="28">
         <f t="shared" ref="I36:I43" si="10">B36+E36-H36</f>
         <v>363.33333333333331</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="1">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="1">
         <f>595+10*$M$2</f>
         <v>635</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="1">
         <f>15+$M$2</f>
         <v>19</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="1">
         <f t="shared" ref="D37:D43" si="11">MONTH($L$11) -MONTH(D8)+1</f>
         <v>10</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="1">
         <f t="shared" si="7"/>
         <v>15.833333333333334</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="1">
         <f>33-$M$2</f>
         <v>29</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="1">
         <f t="shared" ref="G37:G38" si="12">MONTH($L$11)-MONTH(F8)+1</f>
         <v>11</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="1">
         <f t="shared" si="9"/>
         <v>26.583333333333332</v>
       </c>
-      <c r="I37" s="24">
-        <f t="shared" si="10"/>
-        <v>624.25</v>
+      <c r="I37" s="28">
+        <f>B37+SUM(E37:E39)-SUM(H37:H39)</f>
+        <v>662.16666666666663</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="4">
+      <c r="A38" s="17"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1">
         <f>70+$M$2</f>
         <v>74</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="1">
         <f t="shared" si="7"/>
         <v>30.833333333333332</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="1">
         <f>10+$M$2</f>
         <v>14</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="1">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="1">
         <f t="shared" si="9"/>
         <v>8.1666666666666661</v>
       </c>
-      <c r="I38" s="24">
-        <f t="shared" si="10"/>
-        <v>22.666666666666664</v>
-      </c>
+      <c r="I38" s="28"/>
     </row>
     <row r="39" ht="14.4" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="4">
+      <c r="A39" s="17"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1">
         <f>65-$M$2</f>
         <v>61</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="1">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="1">
         <f t="shared" si="7"/>
         <v>15.25</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="24">
-        <f>B39+E39</f>
-        <v>15.25</v>
-      </c>
+      <c r="I39" s="28"/>
     </row>
     <row r="40" ht="14.4" customHeight="1">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="1">
         <f>380-$M$2</f>
         <v>376</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="1">
         <f>14+$M$2</f>
         <v>18</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="1">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="1">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="1">
         <f>7+$M$2</f>
         <v>11</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="1">
         <f>MONTH($L$11)-MONTH(F11)+1</f>
         <v>10</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="1">
         <f t="shared" si="9"/>
         <v>9.1666666666666661</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="28">
         <f t="shared" si="10"/>
         <v>375.83333333333331</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="1">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="1">
         <f>195+$M$2</f>
         <v>199</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="1">
         <f>34-$M$2</f>
         <v>30</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="1">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="1">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="28">
         <f t="shared" ref="I41:I42" si="13">B41+E41</f>
         <v>209</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="1">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="1">
         <f>225+4*$M$2</f>
         <v>241</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="1">
         <f>49+$M$2</f>
         <v>53</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="1">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="1">
         <f t="shared" si="7"/>
         <v>39.75</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="28">
         <f t="shared" si="13"/>
         <v>280.75</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="1">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="1">
         <f>170+3*$M$2</f>
         <v>182</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="1">
         <f>23+$M$2</f>
         <v>27</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="1">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="1">
         <f t="shared" si="7"/>
         <v>15.75</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="1">
         <f>20-$M$2</f>
         <v>16</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="1">
         <f>MONTH($L$11)-MONTH(F14)+1</f>
         <v>3</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="1">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="28">
         <f t="shared" si="10"/>
         <v>193.75</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="1">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="22">
         <f>SUM(B34:B43)</f>
         <v>3003</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="22">
         <f>SUM(C34:C43)</f>
         <v>383</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="22">
         <f>SUM(E34:E43)</f>
         <v>217.58333333333331</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="22">
         <f>SUM(F34:F43)</f>
         <v>115</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="31">
+      <c r="H44" s="22">
         <f>H34+H36+H37+H38+H40</f>
         <v>51.166666666666657</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I44" s="13">
         <f>SUM(I34:I43)</f>
         <v>3165.4166666666665</v>
       </c>
@@ -3436,162 +3526,162 @@
         <v>16</v>
       </c>
       <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" ht="14.4" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48" s="16"/>
     </row>
     <row r="49" ht="14.4" customHeight="1">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="1">
         <f>I8</f>
         <v>15220</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="1">
         <f>J8</f>
         <v>16500</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" ht="14.4" customHeight="1">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="33">
         <f>B44</f>
         <v>3003</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="33">
         <f>I44</f>
         <v>3165.4166666666665</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" ht="14.4" customHeight="1">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="1">
         <f>C49/C50</f>
         <v>5.0682650682650685</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="1">
         <f>D49/D50</f>
         <v>5.2125839147031723</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="32">
         <f t="shared" ref="E51:E54" si="14">D51-C51</f>
         <v>0.14431884643810378</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="30">
         <f>(D51-C51)*D50</f>
         <v>456.829281829281</v>
       </c>
     </row>
     <row r="52" ht="14.4" customHeight="1">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="1">
         <f>C50/C49</f>
         <v>0.19730617608409987</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="1">
         <f>D50/D49</f>
         <v>0.19184343434343434</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="32">
         <f t="shared" si="14"/>
         <v>-5.4627417406655221e-003</v>
       </c>
     </row>
     <row r="53" ht="14.4" customHeight="1">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="1">
         <f>I9</f>
         <v>150</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="1">
         <f>J9</f>
         <v>158</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="37" t="s">
+      <c r="G53" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="H53" s="38"/>
-      <c r="I53" s="39"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="36"/>
     </row>
     <row r="54" ht="14.4" customHeight="1">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="22">
         <f>C50/C53</f>
         <v>20.02</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D54" s="22">
         <f>D50/D53</f>
         <v>20.03428270042194</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="37">
         <f t="shared" si="14"/>
         <v>1.4282700421940575e-002</v>
       </c>
-      <c r="G54" s="41"/>
+      <c r="G54" s="20"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="42"/>
+      <c r="I54" s="28"/>
     </row>
     <row r="55" ht="14.4" customHeight="1">
-      <c r="G55" s="41"/>
+      <c r="G55" s="20"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="42"/>
+      <c r="I55" s="28"/>
     </row>
     <row r="56" ht="14.4" customHeight="1">
-      <c r="G56" s="43"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="45"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="13"/>
     </row>
     <row r="57" ht="14.4" customHeight="1"/>
     <row r="58" ht="14.4" customHeight="1"/>
@@ -3599,7 +3689,7 @@
     <row r="60" ht="14.4" customHeight="1"/>
     <row r="61" ht="14.4" customHeight="1"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
@@ -3615,6 +3705,10 @@
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C32:E32"/>
@@ -3622,6 +3716,7 @@
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="B37:B39"/>
+    <mergeCell ref="I37:I39"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="C47:D47"/>
@@ -3638,25 +3733,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="46" width="42.203125"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="46" width="22.08203125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="46" width="33.40234375"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="46" width="35.9140625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="46" width="25.8515625"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" style="46" width="4.48046875"/>
-    <col bestFit="1" min="7" max="10" style="46" width="4.48046875"/>
-    <col min="11" max="11" style="46" width="9.109375"/>
-    <col bestFit="1" customWidth="1" min="12" max="12" style="46" width="49.6640625"/>
-    <col bestFit="1" customWidth="1" min="13" max="13" style="46" width="28.109375"/>
-    <col bestFit="1" customWidth="1" min="14" max="14" style="46" width="10.33203125"/>
-    <col bestFit="1" customWidth="1" min="15" max="15" style="46" width="11.88671875"/>
-    <col min="16" max="16384" style="46" width="9.109375"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="38" width="42.203125"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="38" width="22.08203125"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="38" width="33.40234375"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="38" width="35.9140625"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="38" width="25.8515625"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="38" width="4.48046875"/>
+    <col bestFit="1" min="7" max="10" style="38" width="4.48046875"/>
+    <col min="11" max="11" style="38" width="9.109375"/>
+    <col bestFit="1" customWidth="1" min="12" max="12" style="38" width="49.6640625"/>
+    <col bestFit="1" customWidth="1" min="13" max="13" style="38" width="28.109375"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" style="38" width="10.33203125"/>
+    <col bestFit="1" customWidth="1" min="15" max="15" style="38" width="11.88671875"/>
+    <col min="16" max="16384" style="38" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1">
@@ -3676,17 +3771,17 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" ht="14.4" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="30" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="40" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="1"/>
@@ -3696,60 +3791,60 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="30">
         <v>130</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4">
+      <c r="D3" s="39"/>
+      <c r="E3" s="30">
         <v>1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="30">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="30">
         <v>3</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="30">
         <v>4</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="30">
         <v>5</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="4">
-        <v>7</v>
+      <c r="B4" s="30">
+        <v>6</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="30">
         <v>250</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="30">
         <v>232</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="30">
         <v>264</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="30">
         <v>280</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="30">
         <v>230</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="30">
         <v>275</v>
       </c>
     </row>
@@ -3766,13 +3861,13 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3780,19 +3875,19 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="47" t="s">
         <v>73</v>
       </c>
       <c r="F7" s="1"/>
@@ -3802,24 +3897,24 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="48">
         <v>1</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="49">
         <f t="shared" ref="B8:B13" si="15">100/$B$4/100</f>
-        <v>0.14285714285714288</v>
-      </c>
-      <c r="C8" s="53">
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="C8" s="50">
         <f>B3*B8</f>
-        <v>18.571428571428573</v>
-      </c>
-      <c r="D8" s="53">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="D8" s="50">
         <f>B3-C8</f>
-        <v>111.42857142857143</v>
-      </c>
-      <c r="E8" s="54">
+        <v>108.33333333333333</v>
+      </c>
+      <c r="E8" s="51">
         <f>C8</f>
-        <v>18.571428571428573</v>
+        <v>21.666666666666668</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3828,24 +3923,24 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="48">
         <v>2</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="49">
         <f t="shared" si="15"/>
-        <v>0.14285714285714288</v>
-      </c>
-      <c r="C9" s="53">
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="C9" s="50">
         <f>B3*B9</f>
-        <v>18.571428571428573</v>
-      </c>
-      <c r="D9" s="53">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="D9" s="50">
         <f>D8-C9</f>
-        <v>92.857142857142861</v>
-      </c>
-      <c r="E9" s="54">
+        <v>86.666666666666657</v>
+      </c>
+      <c r="E9" s="51">
         <f>E8+C9</f>
-        <v>37.142857142857146</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3854,24 +3949,24 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="48">
         <v>3</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="49">
         <f t="shared" si="15"/>
-        <v>0.14285714285714288</v>
-      </c>
-      <c r="C10" s="53">
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="C10" s="50">
         <f>B3*B10</f>
-        <v>18.571428571428573</v>
-      </c>
-      <c r="D10" s="53">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="D10" s="50">
         <f>D9-C10</f>
-        <v>74.285714285714292</v>
-      </c>
-      <c r="E10" s="54">
+        <v>64.999999999999986</v>
+      </c>
+      <c r="E10" s="51">
         <f>E9+C10</f>
-        <v>55.714285714285722</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3880,24 +3975,24 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" ht="14.4" customHeight="1">
-      <c r="A11" s="12">
+      <c r="A11" s="48">
         <v>4</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="49">
         <f t="shared" si="15"/>
-        <v>0.14285714285714288</v>
-      </c>
-      <c r="C11" s="53">
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="C11" s="50">
         <f>B3*B11</f>
-        <v>18.571428571428573</v>
-      </c>
-      <c r="D11" s="53">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="D11" s="50">
         <f t="shared" ref="D11:D13" si="16">D10-C11</f>
-        <v>55.714285714285722</v>
-      </c>
-      <c r="E11" s="54">
+        <v>43.333333333333314</v>
+      </c>
+      <c r="E11" s="51">
         <f t="shared" ref="E11:E13" si="17">E10+C11</f>
-        <v>74.285714285714292</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3906,24 +4001,24 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" s="34">
+      <c r="A12" s="52">
         <v>5</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="49">
         <f t="shared" si="15"/>
-        <v>0.14285714285714288</v>
-      </c>
-      <c r="C12" s="53">
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="C12" s="50">
         <f>B3*B12</f>
-        <v>18.571428571428573</v>
-      </c>
-      <c r="D12" s="53">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="D12" s="50">
         <f t="shared" si="16"/>
-        <v>37.142857142857153</v>
-      </c>
-      <c r="E12" s="54">
+        <v>21.666666666666647</v>
+      </c>
+      <c r="E12" s="51">
         <f t="shared" si="17"/>
-        <v>92.857142857142861</v>
+        <v>108.33333333333334</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3932,24 +4027,24 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" ht="14.4" customHeight="1">
-      <c r="A13" s="55">
+      <c r="A13" s="53">
         <v>6</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="54">
         <f t="shared" si="15"/>
-        <v>0.14285714285714288</v>
-      </c>
-      <c r="C13" s="57">
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="C13" s="55">
         <f>B3*B13</f>
-        <v>18.571428571428573</v>
-      </c>
-      <c r="D13" s="57">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="D13" s="55">
         <f t="shared" si="16"/>
-        <v>18.57142857142858</v>
-      </c>
-      <c r="E13" s="58">
+        <v>-2.1316282072803006e-014</v>
+      </c>
+      <c r="E13" s="56">
         <f t="shared" si="17"/>
-        <v>111.42857142857143</v>
+        <v>130</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3958,13 +4053,13 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" ht="14.4" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3972,19 +4067,19 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" ht="14.4" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="47" t="s">
         <v>73</v>
       </c>
       <c r="F15" s="1"/>
@@ -3994,22 +4089,22 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" ht="14.4" customHeight="1">
-      <c r="A16" s="12">
+      <c r="A16" s="48">
         <v>1</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="49">
         <f>6/(6*(6+1)/2)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="50">
         <f t="shared" ref="C16:C32" si="18">$B$3*B16</f>
         <v>37.142857142857139</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="50">
         <f>B3-C16</f>
         <v>92.857142857142861</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="51">
         <f>C16</f>
         <v>37.142857142857139</v>
       </c>
@@ -4020,163 +4115,163 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" ht="14.4" customHeight="1">
-      <c r="A17" s="12">
+      <c r="A17" s="48">
         <v>2</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="49">
         <f>5/(6*(6+1)/2)</f>
         <v>0.23809523809523808</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="50">
         <f t="shared" si="18"/>
         <v>30.952380952380949</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="50">
         <f t="shared" ref="D17:D21" si="19">D16-C17</f>
         <v>61.904761904761912</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="51">
         <f t="shared" ref="E17:E21" si="20">E16+C17</f>
         <v>68.095238095238088</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="59"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" ht="14.4" customHeight="1">
-      <c r="A18" s="12">
+      <c r="A18" s="48">
         <v>3</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="49">
         <f>4/(6*(6+1)/2)</f>
         <v>0.19047619047619047</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="50">
         <f t="shared" si="18"/>
         <v>24.761904761904759</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="50">
         <f t="shared" si="19"/>
         <v>37.142857142857153</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="51">
         <f t="shared" si="20"/>
         <v>92.857142857142847</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="59"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" ht="14.4" customHeight="1">
-      <c r="A19" s="12">
+      <c r="A19" s="48">
         <v>4</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="49">
         <f>3/(6*(6+1)/2)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="50">
         <f t="shared" si="18"/>
         <v>18.571428571428569</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="50">
         <f t="shared" si="19"/>
         <v>18.571428571428584</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="51">
         <f t="shared" si="20"/>
         <v>111.42857142857142</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="59"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" ht="14.4" customHeight="1">
-      <c r="A20" s="34">
+      <c r="A20" s="52">
         <v>5</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="49">
         <f>2/(6*(6+1)/2)</f>
         <v>9.5238095238095233e-002</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="50">
         <f t="shared" si="18"/>
         <v>12.38095238095238</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="50">
         <f t="shared" si="19"/>
         <v>6.190476190476204</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="51">
         <f t="shared" si="20"/>
         <v>123.8095238095238</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="59"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" ht="14.4" customHeight="1">
-      <c r="A21" s="55">
+      <c r="A21" s="53">
         <v>6</v>
       </c>
-      <c r="B21" s="56">
+      <c r="B21" s="54">
         <f>1/(6*(6+1)/2)</f>
         <v>4.7619047619047616e-002</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="55">
         <f t="shared" si="18"/>
         <v>6.1904761904761898</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="55">
         <f t="shared" si="19"/>
         <v>1.4210854715202004e-014</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="56">
         <f t="shared" si="20"/>
         <v>130</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="59"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" ht="14.4" customHeight="1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="59"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" ht="14.4" customHeight="1">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="47" t="s">
         <v>73</v>
       </c>
       <c r="F23" s="1"/>
@@ -4186,22 +4281,22 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" ht="14.4" customHeight="1">
-      <c r="A24" s="12">
+      <c r="A24" s="48">
         <v>1</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="49">
         <f>(6-6+1)/(6*(6+1)/2)</f>
         <v>4.7619047619047616e-002</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="50">
         <f t="shared" si="18"/>
         <v>6.1904761904761898</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="50">
         <f>$B$3-C24</f>
         <v>123.80952380952381</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="51">
         <f>C24</f>
         <v>6.1904761904761898</v>
       </c>
@@ -4212,22 +4307,22 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" ht="14.4" customHeight="1">
-      <c r="A25" s="12">
+      <c r="A25" s="48">
         <v>2</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="49">
         <f>(6-5+1)/(6*(6+1)/2)</f>
         <v>9.5238095238095233e-002</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="50">
         <f t="shared" si="18"/>
         <v>12.38095238095238</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="50">
         <f t="shared" ref="D25:D29" si="21">D24-C25</f>
         <v>111.42857142857143</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="51">
         <f t="shared" ref="E25:E29" si="22">E24+C25</f>
         <v>18.571428571428569</v>
       </c>
@@ -4238,22 +4333,22 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" ht="14.4" customHeight="1">
-      <c r="A26" s="12">
+      <c r="A26" s="48">
         <v>3</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="49">
         <f>(6-4+1)/(6*(6+1)/2)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="50">
         <f t="shared" si="18"/>
         <v>18.571428571428569</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="50">
         <f t="shared" si="21"/>
         <v>92.857142857142861</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="51">
         <f t="shared" si="22"/>
         <v>37.142857142857139</v>
       </c>
@@ -4264,22 +4359,22 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" ht="14.4" customHeight="1">
-      <c r="A27" s="12">
+      <c r="A27" s="48">
         <v>4</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="49">
         <f>(6-3+1)/(6*(6+1)/2)</f>
         <v>0.19047619047619047</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="50">
         <f t="shared" si="18"/>
         <v>24.761904761904759</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="50">
         <f t="shared" si="21"/>
         <v>68.095238095238102</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="51">
         <f t="shared" si="22"/>
         <v>61.904761904761898</v>
       </c>
@@ -4290,22 +4385,22 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" ht="14.4" customHeight="1">
-      <c r="A28" s="34">
+      <c r="A28" s="52">
         <v>5</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="49">
         <f>(6-2+1)/(6*(6+1)/2)</f>
         <v>0.23809523809523808</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="50">
         <f t="shared" si="18"/>
         <v>30.952380952380949</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="50">
         <f t="shared" si="21"/>
         <v>37.142857142857153</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="51">
         <f t="shared" si="22"/>
         <v>92.857142857142847</v>
       </c>
@@ -4316,22 +4411,22 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" ht="14.4" customHeight="1">
-      <c r="A29" s="55">
+      <c r="A29" s="53">
         <v>6</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="54">
         <f>(6-1+1)/(6*(6+1)/2)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="55">
         <f t="shared" si="18"/>
         <v>37.142857142857139</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="55">
         <f t="shared" si="21"/>
         <v>1.4210854715202004e-014</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="56">
         <f t="shared" si="22"/>
         <v>130</v>
       </c>
@@ -4342,13 +4437,13 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" ht="14.4" customHeight="1">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -4356,19 +4451,19 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" ht="14.4" customHeight="1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="47" t="s">
         <v>73</v>
       </c>
       <c r="F31" s="1"/>
@@ -4378,22 +4473,22 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" ht="14.4" customHeight="1">
-      <c r="A32" s="12">
+      <c r="A32" s="48">
         <v>1</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="49">
         <f t="shared" ref="B32:B37" si="23">(100/6)*2/100</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="50">
         <f t="shared" si="18"/>
         <v>43.333333333333336</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="50">
         <f>B3-C32</f>
         <v>86.666666666666657</v>
       </c>
-      <c r="E32" s="54">
+      <c r="E32" s="51">
         <f>C32</f>
         <v>43.333333333333336</v>
       </c>
@@ -4404,22 +4499,22 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" ht="14.4" customHeight="1">
-      <c r="A33" s="12">
+      <c r="A33" s="48">
         <v>2</v>
       </c>
-      <c r="B33" s="52">
+      <c r="B33" s="49">
         <f t="shared" si="23"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="C33" s="53">
+      <c r="C33" s="50">
         <f>($B$3-C32)*B33</f>
         <v>28.888888888888889</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="50">
         <f t="shared" ref="D33:D37" si="24">D32-C33</f>
         <v>57.777777777777771</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="51">
         <f t="shared" ref="E33:E37" si="25">E32+C33</f>
         <v>72.222222222222229</v>
       </c>
@@ -4430,22 +4525,22 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" ht="14.4" customHeight="1">
-      <c r="A34" s="12">
+      <c r="A34" s="48">
         <v>3</v>
       </c>
-      <c r="B34" s="52">
+      <c r="B34" s="49">
         <f t="shared" si="23"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="50">
         <f>($B$3-C32-C33)*B34</f>
         <v>19.25925925925926</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="50">
         <f t="shared" si="24"/>
         <v>38.518518518518512</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E34" s="51">
         <f t="shared" si="25"/>
         <v>91.481481481481495</v>
       </c>
@@ -4456,22 +4551,22 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" ht="14.4" customHeight="1">
-      <c r="A35" s="12">
+      <c r="A35" s="48">
         <v>4</v>
       </c>
-      <c r="B35" s="52">
+      <c r="B35" s="49">
         <f t="shared" si="23"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="50">
         <f>($B$3-C32-C33-C34)*B34</f>
         <v>12.839506172839505</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="50">
         <f t="shared" si="24"/>
         <v>25.679012345679006</v>
       </c>
-      <c r="E35" s="54">
+      <c r="E35" s="51">
         <f t="shared" si="25"/>
         <v>104.320987654321</v>
       </c>
@@ -4482,22 +4577,22 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" ht="14.4" customHeight="1">
-      <c r="A36" s="34">
+      <c r="A36" s="52">
         <v>5</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="49">
         <f t="shared" si="23"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="50">
         <f>($B$3-C32-C33-C34-C35)*B34</f>
         <v>8.5596707818930025</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="50">
         <f t="shared" si="24"/>
         <v>17.119341563786001</v>
       </c>
-      <c r="E36" s="54">
+      <c r="E36" s="51">
         <f t="shared" si="25"/>
         <v>112.88065843621401</v>
       </c>
@@ -4508,22 +4603,22 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" ht="14.4" customHeight="1">
-      <c r="A37" s="55">
+      <c r="A37" s="53">
         <v>6</v>
       </c>
-      <c r="B37" s="56">
+      <c r="B37" s="54">
         <f t="shared" si="23"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="55">
         <f>($B$3-C32-C33-C34-C35-C36)</f>
         <v>17.119341563786001</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="55">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="E37" s="58">
+      <c r="E37" s="56">
         <f t="shared" si="25"/>
         <v>130</v>
       </c>
@@ -4534,13 +4629,13 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" ht="14.4" customHeight="1">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="51"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -4548,19 +4643,19 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" ht="14.4" customHeight="1">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="47" t="s">
         <v>73</v>
       </c>
       <c r="F39" s="1"/>
@@ -4570,22 +4665,22 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" ht="14.4" customHeight="1">
-      <c r="A40" s="12">
+      <c r="A40" s="48">
         <v>1</v>
       </c>
-      <c r="B40" s="52">
+      <c r="B40" s="49">
         <f>E4/SUM($E$4:$J$4)</f>
         <v>0.16329196603527107</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="50">
         <f t="shared" ref="C40:C45" si="26">$B$3*B40</f>
         <v>21.227955584585239</v>
       </c>
-      <c r="D40" s="53">
+      <c r="D40" s="50">
         <f>$B$3-C40</f>
         <v>108.77204441541477</v>
       </c>
-      <c r="E40" s="54">
+      <c r="E40" s="51">
         <f>C40</f>
         <v>21.227955584585239</v>
       </c>
@@ -4596,22 +4691,22 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" ht="14.4" customHeight="1">
-      <c r="A41" s="12">
+      <c r="A41" s="48">
         <v>2</v>
       </c>
-      <c r="B41" s="52">
+      <c r="B41" s="49">
         <f>F4/SUM($E$4:$J$4)</f>
         <v>0.15153494448073154</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="50">
         <f t="shared" si="26"/>
         <v>19.699542782495101</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="50">
         <f>$B$3-C40-C41</f>
         <v>89.072501632919668</v>
       </c>
-      <c r="E41" s="54">
+      <c r="E41" s="51">
         <f t="shared" ref="E41:E45" si="27">E40+C41</f>
         <v>40.927498367080339</v>
       </c>
@@ -4622,22 +4717,22 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" ht="14.4" customHeight="1">
-      <c r="A42" s="12">
+      <c r="A42" s="48">
         <v>3</v>
       </c>
-      <c r="B42" s="52">
+      <c r="B42" s="49">
         <f>G4/SUM($E$4:$J$4)</f>
         <v>0.17243631613324625</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C42" s="50">
         <f t="shared" si="26"/>
         <v>22.416721097322014</v>
       </c>
-      <c r="D42" s="53">
+      <c r="D42" s="50">
         <f>$B$3-C40-C41-C42</f>
         <v>66.655780535597657</v>
       </c>
-      <c r="E42" s="54">
+      <c r="E42" s="51">
         <f t="shared" si="27"/>
         <v>63.344219464402357</v>
       </c>
@@ -4648,22 +4743,22 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" ht="14.4" customHeight="1">
-      <c r="A43" s="60">
+      <c r="A43" s="57">
         <v>4</v>
       </c>
-      <c r="B43" s="52">
+      <c r="B43" s="49">
         <f>H4/SUM($E$4:$J$4)</f>
         <v>0.18288700195950358</v>
       </c>
-      <c r="C43" s="53">
+      <c r="C43" s="50">
         <f t="shared" si="26"/>
         <v>23.775310254735466</v>
       </c>
-      <c r="D43" s="53">
+      <c r="D43" s="50">
         <f>$B$3-C40-C41-C42-C43</f>
         <v>42.880470280862191</v>
       </c>
-      <c r="E43" s="54">
+      <c r="E43" s="51">
         <f t="shared" si="27"/>
         <v>87.11952971913783</v>
       </c>
@@ -4674,43 +4769,43 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" ht="14.4" customHeight="1">
-      <c r="A44" s="61">
+      <c r="A44" s="58">
         <v>5</v>
       </c>
-      <c r="B44" s="62">
+      <c r="B44" s="59">
         <f>I4/SUM($E$4:$J$4)</f>
         <v>0.15022860875244937</v>
       </c>
-      <c r="C44" s="53">
+      <c r="C44" s="50">
         <f t="shared" si="26"/>
         <v>19.529719137818418</v>
       </c>
-      <c r="D44" s="53">
+      <c r="D44" s="50">
         <f>$B$3-C40-C41-C42-C43-C44</f>
         <v>23.350751143043773</v>
       </c>
-      <c r="E44" s="54">
+      <c r="E44" s="51">
         <f t="shared" si="27"/>
         <v>106.64924885695625</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="1">
-      <c r="A45" s="63">
+      <c r="A45" s="60">
         <v>6</v>
       </c>
-      <c r="B45" s="64">
+      <c r="B45" s="61">
         <f>J4/SUM($E$4:$J$4)</f>
         <v>0.17962116263879818</v>
       </c>
-      <c r="C45" s="57">
+      <c r="C45" s="55">
         <f t="shared" si="26"/>
         <v>23.350751143043762</v>
       </c>
-      <c r="D45" s="57">
+      <c r="D45" s="55">
         <f>$B$3-C40-C41-C42-C43-C44-C45</f>
         <v>1.0658141036401503e-014</v>
       </c>
-      <c r="E45" s="58">
+      <c r="E45" s="56">
         <f t="shared" si="27"/>
         <v>130</v>
       </c>
@@ -4740,566 +4835,566 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="85" workbookViewId="0">
       <selection activeCell="A41" activeCellId="0" sqref="A41:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="46" width="61.05078125"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="46" width="40.94140625"/>
-    <col bestFit="1" customWidth="1" min="3" max="4" style="46" width="10.7734375"/>
-    <col bestFit="1" min="5" max="5" style="46" width="15.80078125"/>
-    <col min="6" max="16384" style="46" width="9.109375"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="38" width="61.05078125"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="38" width="40.94140625"/>
+    <col bestFit="1" customWidth="1" min="3" max="4" style="38" width="10.7734375"/>
+    <col bestFit="1" min="5" max="5" style="38" width="15.80078125"/>
+    <col min="6" max="16384" style="38" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="G2" s="69" t="s">
+      <c r="D2" s="65"/>
+      <c r="G2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="69">
+      <c r="H2" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="69" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="72">
         <f>45+$H$2</f>
         <v>49</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="73">
         <f>45+$H$2</f>
         <v>49</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="75">
         <f>7.5+0.2*$H$2</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="76">
         <f>8+0.3*$H$2</f>
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="75">
         <f>200+5*$H$2</f>
         <v>220</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="76">
         <f>210+10*$H$2</f>
         <v>250</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="75">
         <f>81+0.1*$H$2</f>
         <v>81.400000000000006</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="76">
         <f>83+0.2*$H$2</f>
         <v>83.799999999999997</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="75">
         <f>62+0.1*$H$2</f>
         <v>62.399999999999999</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="76">
         <f>64+0.2*$H$2</f>
         <v>64.799999999999997</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="75">
         <f>60-$H$2</f>
         <v>56</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="76">
         <f>54-$H$2</f>
         <v>50</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="75">
         <v>7</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="76">
         <v>7</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="75">
         <v>0.82999999999999996</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="76">
         <v>0.82999999999999996</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="77">
         <f>30+$H$2</f>
         <v>34</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="76">
         <f>30+$H$2</f>
         <v>34</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="75">
         <v>15</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="76">
         <v>15</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="83">
+      <c r="C14" s="80">
         <f>20+$H$2</f>
         <v>24</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="81">
         <f>20+$H$2</f>
         <v>24</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
     </row>
     <row r="17">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="85"/>
+      <c r="D17" s="82"/>
     </row>
     <row r="18">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71" t="s">
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="69" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="75">
+      <c r="C19" s="72">
         <f>C4*C6</f>
         <v>10780</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="73">
         <f>D4*D6</f>
         <v>12250</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="75">
         <f>C19/360</f>
         <v>29.944444444444443</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="76">
         <f>D19/360</f>
         <v>34.027777777777779</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="78">
+      <c r="C21" s="75">
         <f>C9*C20</f>
         <v>1676.8888888888887</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="76">
         <f>D9*D20</f>
         <v>1701.3888888888889</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="78">
+      <c r="C22" s="75">
         <f>C20*C10</f>
         <v>209.61111111111109</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="76">
         <f>D20*D10</f>
         <v>238.19444444444446</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="78">
+      <c r="C23" s="75">
         <f>(C21/2+C22)*C5</f>
         <v>8698.8611111111113</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="76">
         <f>(D21/2+D22)*D5</f>
         <v>10017.777777777777</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="78">
+      <c r="C24" s="75">
         <f>C6/360</f>
         <v>0.61111111111111116</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="76">
         <f>D6/360</f>
         <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="78">
+      <c r="C25" s="75">
         <f>C11*C24*C8*C12</f>
         <v>1076.1226666666666</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="76">
         <f>D11*D24*D8*D12</f>
         <v>1269.8999999999999</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="78">
+      <c r="C26" s="75">
         <f>C13</f>
         <v>15</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="76">
         <f>D13</f>
         <v>15</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="78">
+      <c r="C27" s="75">
         <f>C6*C7</f>
         <v>17908</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="76">
         <f>D6*D7</f>
         <v>20950</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="78">
+      <c r="C28" s="75">
         <f>C27/360*C14</f>
         <v>1193.8666666666668</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="76">
         <f>D27/360*D14</f>
         <v>1396.6666666666665</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="83">
+      <c r="C29" s="80">
         <f>C23+C25+C26+C28</f>
         <v>10983.850444444444</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="81">
         <f>D23+D25+D26+D28</f>
         <v>12699.344444444443</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
     </row>
     <row r="31">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
     </row>
     <row r="32">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="85"/>
+      <c r="D32" s="82"/>
     </row>
     <row r="33">
-      <c r="A33" s="70"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="69" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="75">
+      <c r="C34" s="72">
         <f>C27/C29</f>
         <v>1.630393648436623</v>
       </c>
-      <c r="D34" s="76">
+      <c r="D34" s="73">
         <f>D27/D29</f>
         <v>1.6496914538895711</v>
       </c>
-      <c r="E34" s="86">
+      <c r="E34" s="83">
         <f t="shared" ref="E34:E36" si="28">D34-C34</f>
         <v>1.9297805452948014e-002</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="78">
+      <c r="C35" s="75">
         <f>C29/C27</f>
         <v>0.61334880748517107</v>
       </c>
-      <c r="D35" s="79">
+      <c r="D35" s="76">
         <f>D29/D27</f>
         <v>0.60617395916202588</v>
       </c>
-      <c r="E35" s="86">
+      <c r="E35" s="83">
         <f t="shared" si="28"/>
         <v>-7.1748483231451887e-003</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="83">
+      <c r="C36" s="80">
         <f>360/C34</f>
         <v>220.80557069466158</v>
       </c>
-      <c r="D36" s="84">
+      <c r="D36" s="81">
         <f>360/D34</f>
         <v>218.22262529832932</v>
       </c>
-      <c r="E36" s="86">
+      <c r="E36" s="83">
         <f t="shared" si="28"/>
         <v>-2.5829453963322635</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
     </row>
     <row r="38">
-      <c r="A38" s="46">
+      <c r="A38" s="38">
         <f>(C36-D36)*D29/360</f>
         <v>91.11587019226522</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
     </row>
     <row r="39">
-      <c r="A39" s="46">
+      <c r="A39" s="38">
         <f>C29*D27/C27-D29</f>
         <v>150.31307236989232</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
     </row>
     <row r="41" ht="76.200000000000003" customHeight="1">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="88"/>
+      <c r="B41" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5351,128 +5446,128 @@
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="88" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="46">
         <f>48+0.1*$C$18</f>
         <v>48.399999999999999</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="46">
         <v>504</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="47" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="4" ht="16.800000000000001" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="30">
         <f>980-5*$C$18</f>
         <v>960</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="30">
         <v>527</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="95" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" ht="16.199999999999999" customHeight="1">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="30">
         <f>1.05+0.01*$C$18</f>
         <v>1.0900000000000001</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="30">
         <v>45</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="95" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="30">
         <f>230+$C$18</f>
         <v>234</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="97">
         <v>119</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="98" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="30">
         <v>2</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="93" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="30">
         <v>6</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="93" t="s">
         <v>158</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -5480,40 +5575,40 @@
       </c>
     </row>
     <row r="9" ht="16.800000000000001" customHeight="1">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="30">
         <f>440+5*$C$18</f>
         <v>460</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="88" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10" ht="17.399999999999999" customHeight="1">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="30">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="46" t="s">
         <v>166</v>
       </c>
       <c r="G10" s="99">
@@ -5522,20 +5617,20 @@
       </c>
     </row>
     <row r="11" ht="17.399999999999999" customHeight="1">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="30">
         <f>105+$C$18</f>
         <v>109</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="30" t="s">
         <v>170</v>
       </c>
       <c r="G11" s="100">
@@ -5544,20 +5639,20 @@
       </c>
     </row>
     <row r="12" ht="16.800000000000001" customHeight="1">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="30">
         <f>32-$C$18</f>
         <v>28</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="30" t="s">
         <v>108</v>
       </c>
       <c r="G12" s="100">
@@ -5566,20 +5661,20 @@
       </c>
     </row>
     <row r="13" ht="16.800000000000001" customHeight="1">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="30">
         <f>21-$C$18</f>
         <v>17</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="E13" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="30" t="s">
         <v>177</v>
       </c>
       <c r="G13" s="100">
@@ -5588,20 +5683,20 @@
       </c>
     </row>
     <row r="14" ht="16.800000000000001" customHeight="1">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="30">
         <f>28+$C$18</f>
         <v>32</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="30" t="s">
         <v>181</v>
       </c>
       <c r="G14" s="100">
@@ -5610,20 +5705,20 @@
       </c>
     </row>
     <row r="15" ht="16.199999999999999" customHeight="1">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="30">
         <f>124+5*$C$18</f>
         <v>144</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="30" t="s">
         <v>184</v>
       </c>
       <c r="G15" s="100">
@@ -5635,17 +5730,17 @@
       <c r="A16" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="97">
         <f>1.1+0.1*$C$18</f>
         <v>1.5</v>
       </c>
       <c r="C16" s="102" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="97" t="s">
         <v>188</v>
       </c>
       <c r="G16" s="103">
@@ -5654,10 +5749,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="30">
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -5665,21 +5760,21 @@
       </c>
     </row>
     <row r="19">
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="91" t="s">
+      <c r="G19" s="88" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20">
-      <c r="E20" s="94" t="s">
+      <c r="E20" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="46" t="s">
         <v>191</v>
       </c>
       <c r="G20" s="104">
@@ -5688,44 +5783,44 @@
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="51">
         <f>B14/G16</f>
         <v>6.3576254682647618e-002</v>
       </c>
     </row>
     <row r="22" ht="16.199999999999999" customHeight="1">
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="G22" s="54">
+      <c r="G22" s="51">
         <f>(G16-B14-B13)/G16</f>
         <v>0.9026488600171958</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="1">
-      <c r="E23" s="98" t="s">
+      <c r="E23" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="56">
         <f>(B14-B13)/G16</f>
         <v>2.9801369382491071e-002</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="50">
         <f>F4*B3/F5-G16</f>
         <v>63.485202436028089</v>
       </c>
@@ -5769,10 +5864,10 @@
       </c>
       <c r="B28" s="112"/>
       <c r="C28" s="113"/>
-      <c r="E28" s="94" t="s">
+      <c r="E28" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="46" t="s">
         <v>202</v>
       </c>
       <c r="G28" s="114">
@@ -5788,72 +5883,72 @@
       <c r="A29" s="115"/>
       <c r="B29" s="116"/>
       <c r="C29" s="117"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="94"/>
+      <c r="F29" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="G29" s="53">
+      <c r="G29" s="50">
         <f>H28/G28</f>
         <v>1.1261297312078862</v>
       </c>
-      <c r="H29" s="54"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="30">
       <c r="A30" s="118"/>
       <c r="B30" s="119"/>
       <c r="C30" s="120"/>
-      <c r="E30" s="97" t="s">
+      <c r="E30" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="50">
         <f>F5*B15/G16</f>
         <v>12.874191573236143</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="51">
         <f>B3*B15/G16</f>
         <v>13.84690826988065</v>
       </c>
     </row>
     <row r="31">
-      <c r="E31" s="97"/>
-      <c r="F31" s="4" t="s">
+      <c r="E31" s="94"/>
+      <c r="F31" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="G31" s="53">
+      <c r="G31" s="50">
         <f>H30/G30</f>
         <v>1.0755555555555554</v>
       </c>
-      <c r="H31" s="54"/>
+      <c r="H31" s="51"/>
     </row>
     <row r="32">
-      <c r="E32" s="97" t="s">
+      <c r="E32" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="G32" s="53">
+      <c r="G32" s="50">
         <f>F5*60*B16/G16</f>
         <v>8.0463697332725896</v>
       </c>
-      <c r="H32" s="54">
+      <c r="H32" s="51">
         <f>(B3*B16)/G16*60</f>
         <v>8.6543176686754055</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" s="98"/>
-      <c r="F33" s="17" t="s">
+      <c r="E33" s="96"/>
+      <c r="F33" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="G33" s="57">
+      <c r="G33" s="55">
         <f>H32/G32</f>
         <v>1.0755555555555554</v>
       </c>
-      <c r="H33" s="58"/>
+      <c r="H33" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
